--- a/temp/data/data.xlsx
+++ b/temp/data/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khng0\Documents\Competitions\FPT HKT 2024\repo\temp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khng0\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5EA76A-FAFB-4831-BEB9-EE3F6F33C886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F089FC98-2A6A-4532-A298-901F7FE277B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3763" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3763" uniqueCount="104">
   <si>
     <t>facility</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>continuous_flooding</t>
+  </si>
+  <si>
+    <t>nongtraixanh</t>
   </si>
 </sst>
 </file>
@@ -803,8 +806,8 @@
   </sheetPr>
   <dimension ref="A1:AI117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AJ20" sqref="AJ20"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1028,7 +1031,7 @@
       </c>
       <c r="AI2">
         <f ca="1">ROUND(12+RAND()+RAND(), 2)</f>
-        <v>12.25</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1059,7 +1062,7 @@
       </c>
       <c r="I3" s="16">
         <f ca="1">$I$2+RANDBETWEEN(0,3)</f>
-        <v>19.04</v>
+        <v>22.04</v>
       </c>
       <c r="J3" s="2">
         <v>1.26</v>
@@ -1139,7 +1142,7 @@
       </c>
       <c r="AI3">
         <f t="shared" ref="AI3:AI66" ca="1" si="1">ROUND(12+RAND()+RAND(), 2)</f>
-        <v>12.71</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1166,11 +1169,11 @@
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4:H43" ca="1" si="2">$H$2+RANDBETWEEN(0,3)</f>
-        <v>23.49</v>
+        <v>26.49</v>
       </c>
       <c r="I4" s="16">
         <f ca="1">$I$2+RANDBETWEEN(0,3)</f>
-        <v>22.04</v>
+        <v>20.04</v>
       </c>
       <c r="J4" s="2">
         <v>2.42</v>
@@ -1247,11 +1250,11 @@
       </c>
       <c r="AH4">
         <f ca="1">ROUND(6+RAND(), 2)</f>
-        <v>6.88</v>
+        <v>6.64</v>
       </c>
       <c r="AI4">
         <f t="shared" ca="1" si="1"/>
-        <v>12.8</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1278,7 +1281,7 @@
       </c>
       <c r="H5" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>25.49</v>
+        <v>26.49</v>
       </c>
       <c r="I5" s="16">
         <v>18.5</v>
@@ -1358,11 +1361,11 @@
       </c>
       <c r="AH5">
         <f t="shared" ref="AH5:AH7" ca="1" si="3">ROUND(6+RAND(), 2)</f>
-        <v>6.43</v>
+        <v>6.92</v>
       </c>
       <c r="AI5">
         <f t="shared" ca="1" si="1"/>
-        <v>12.84</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1393,7 +1396,7 @@
       </c>
       <c r="I6" s="16">
         <f t="shared" ref="I6:I43" ca="1" si="4">$I$2+RANDBETWEEN(0,3)</f>
-        <v>19.04</v>
+        <v>21.04</v>
       </c>
       <c r="J6" s="2">
         <v>9.1</v>
@@ -1467,15 +1470,15 @@
       </c>
       <c r="AG6">
         <f ca="1">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>3.91</v>
+        <v>4.18</v>
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="3"/>
-        <v>6.17</v>
+        <v>6.28</v>
       </c>
       <c r="AI6">
         <f t="shared" ca="1" si="1"/>
-        <v>13.27</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1502,11 +1505,11 @@
       </c>
       <c r="H7" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49</v>
+        <v>24.49</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>19.04</v>
+        <v>22.04</v>
       </c>
       <c r="J7" s="2">
         <v>3.73</v>
@@ -1576,19 +1579,19 @@
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <f t="shared" ref="AG7:AG10" ca="1" si="5">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>4.17</v>
+        <v>3.57</v>
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="3"/>
-        <v>6.38</v>
+        <v>6.23</v>
       </c>
       <c r="AI7">
         <f t="shared" ca="1" si="1"/>
-        <v>13.67</v>
+        <v>13.59</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1615,11 +1618,11 @@
       </c>
       <c r="H8" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>26.49</v>
+        <v>25.49</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>21.04</v>
+        <v>20.04</v>
       </c>
       <c r="J8" s="2">
         <v>0.53</v>
@@ -1689,18 +1692,18 @@
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2699999999999996</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="AH8">
         <v>0</v>
       </c>
       <c r="AI8">
         <f t="shared" ca="1" si="1"/>
-        <v>13.12</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1727,11 +1730,11 @@
       </c>
       <c r="H9" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>25.49</v>
+        <v>24.49</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>20.04</v>
+        <v>22.04</v>
       </c>
       <c r="J9" s="2">
         <v>9.36</v>
@@ -1805,14 +1808,14 @@
       </c>
       <c r="AG9">
         <f t="shared" ca="1" si="5"/>
-        <v>3.96</v>
+        <v>3.65</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
         <f t="shared" ca="1" si="1"/>
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1839,7 +1842,7 @@
       </c>
       <c r="H10" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>24.49</v>
+        <v>23.49</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" ca="1" si="4"/>
@@ -1917,14 +1920,14 @@
       </c>
       <c r="AG10">
         <f t="shared" ca="1" si="5"/>
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
         <f t="shared" ca="1" si="1"/>
-        <v>13.02</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1955,7 +1958,7 @@
       </c>
       <c r="I11" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>21.04</v>
+        <v>22.04</v>
       </c>
       <c r="J11" s="2">
         <v>5.22</v>
@@ -2035,7 +2038,7 @@
       </c>
       <c r="AI11">
         <f t="shared" ca="1" si="1"/>
-        <v>13.65</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2062,7 +2065,7 @@
       </c>
       <c r="H12" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>24.49</v>
+        <v>26.49</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" ca="1" si="4"/>
@@ -2146,7 +2149,7 @@
       </c>
       <c r="AI12">
         <f t="shared" ca="1" si="1"/>
-        <v>12.5</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2173,11 +2176,11 @@
       </c>
       <c r="H13" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49</v>
+        <v>26.49</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>20.04</v>
+        <v>22.04</v>
       </c>
       <c r="J13" s="2">
         <v>7.47</v>
@@ -2247,18 +2250,18 @@
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13">
         <v>0</v>
       </c>
       <c r="AH13">
         <f ca="1">ROUND(6+RAND(), 2)</f>
-        <v>6.91</v>
+        <v>6.03</v>
       </c>
       <c r="AI13">
         <f t="shared" ca="1" si="1"/>
-        <v>12.91</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2285,11 +2288,11 @@
       </c>
       <c r="H14" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>24.49</v>
+        <v>26.49</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>20.04</v>
+        <v>21.04</v>
       </c>
       <c r="J14" s="2">
         <v>7.4</v>
@@ -2366,11 +2369,11 @@
       </c>
       <c r="AH14">
         <f t="shared" ref="AH14:AH16" ca="1" si="6">ROUND(6+RAND(), 2)</f>
-        <v>6.51</v>
+        <v>6.32</v>
       </c>
       <c r="AI14">
         <f t="shared" ca="1" si="1"/>
-        <v>12.68</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2397,11 +2400,11 @@
       </c>
       <c r="H15" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>26.49</v>
+        <v>25.49</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>22.04</v>
+        <v>19.04</v>
       </c>
       <c r="J15" s="2">
         <v>10.73</v>
@@ -2478,11 +2481,11 @@
       </c>
       <c r="AH15">
         <f t="shared" ca="1" si="6"/>
-        <v>6.75</v>
+        <v>6.36</v>
       </c>
       <c r="AI15">
         <f t="shared" ca="1" si="1"/>
-        <v>12.56</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2509,11 +2512,11 @@
       </c>
       <c r="H16" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>26.49</v>
+        <v>25.49</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>21.04</v>
+        <v>20.04</v>
       </c>
       <c r="J16" s="2">
         <v>14.87</v>
@@ -2590,11 +2593,11 @@
       </c>
       <c r="AH16">
         <f t="shared" ca="1" si="6"/>
-        <v>6.13</v>
+        <v>6.98</v>
       </c>
       <c r="AI16">
         <f t="shared" ca="1" si="1"/>
-        <v>13.52</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2621,11 +2624,11 @@
       </c>
       <c r="H17" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>26.49</v>
+        <v>25.49</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>20.04</v>
+        <v>19.04</v>
       </c>
       <c r="J17" s="2">
         <v>3.38</v>
@@ -2705,7 +2708,7 @@
       </c>
       <c r="AI17">
         <f t="shared" ca="1" si="1"/>
-        <v>13.33</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2732,11 +2735,11 @@
       </c>
       <c r="H18" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49</v>
+        <v>26.49</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>19.04</v>
+        <v>21.04</v>
       </c>
       <c r="J18" s="2">
         <v>12.97</v>
@@ -2810,14 +2813,14 @@
       </c>
       <c r="AG18">
         <f ca="1">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>3.81</v>
+        <v>3.37</v>
       </c>
       <c r="AH18">
         <v>0</v>
       </c>
       <c r="AI18">
         <f t="shared" ca="1" si="1"/>
-        <v>12.54</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2844,7 +2847,7 @@
       </c>
       <c r="H19" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>25.49</v>
+        <v>23.49</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" ca="1" si="4"/>
@@ -2922,14 +2925,14 @@
       </c>
       <c r="AG19">
         <f t="shared" ref="AG19:AG22" ca="1" si="7">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>4.79</v>
+        <v>3.54</v>
       </c>
       <c r="AH19">
         <v>0</v>
       </c>
       <c r="AI19">
         <f t="shared" ca="1" si="1"/>
-        <v>13.69</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2956,11 +2959,11 @@
       </c>
       <c r="H20" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49</v>
+        <v>25.49</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>19.04</v>
+        <v>22.04</v>
       </c>
       <c r="J20" s="2">
         <v>6.66</v>
@@ -3034,14 +3037,14 @@
       </c>
       <c r="AG20">
         <f t="shared" ca="1" si="7"/>
-        <v>3.3</v>
+        <v>3.51</v>
       </c>
       <c r="AH20">
         <v>0</v>
       </c>
       <c r="AI20">
         <f t="shared" ca="1" si="1"/>
-        <v>13.44</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3146,15 +3149,15 @@
       </c>
       <c r="AG21">
         <f t="shared" ca="1" si="7"/>
-        <v>4.18</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="AH21">
         <f ca="1">ROUND(6+RAND(), 2)</f>
-        <v>6.06</v>
+        <v>6.94</v>
       </c>
       <c r="AI21">
         <f t="shared" ca="1" si="1"/>
-        <v>13.36</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3185,7 +3188,7 @@
       </c>
       <c r="I22" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>22.04</v>
+        <v>19.04</v>
       </c>
       <c r="J22" s="2">
         <v>14.9</v>
@@ -3259,15 +3262,15 @@
       </c>
       <c r="AG22">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1100000000000003</v>
+        <v>4.29</v>
       </c>
       <c r="AH22">
         <f t="shared" ref="AH22:AH24" ca="1" si="8">ROUND(6+RAND(), 2)</f>
-        <v>6.53</v>
+        <v>6.31</v>
       </c>
       <c r="AI22">
         <f t="shared" ca="1" si="1"/>
-        <v>13.1</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3294,11 +3297,11 @@
       </c>
       <c r="H23" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>26.49</v>
+        <v>24.49</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>20.04</v>
+        <v>19.04</v>
       </c>
       <c r="J23" s="2">
         <v>10.77</v>
@@ -3368,18 +3371,18 @@
       </c>
       <c r="AF23">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23">
         <v>0</v>
       </c>
       <c r="AH23">
         <f t="shared" ca="1" si="8"/>
-        <v>6.08</v>
+        <v>6.18</v>
       </c>
       <c r="AI23">
         <f t="shared" ca="1" si="1"/>
-        <v>13.55</v>
+        <v>13.14</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3406,11 +3409,11 @@
       </c>
       <c r="H24" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>24.49</v>
+        <v>23.49</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>19.04</v>
+        <v>21.04</v>
       </c>
       <c r="J24" s="2">
         <v>3.77</v>
@@ -3487,11 +3490,11 @@
       </c>
       <c r="AH24">
         <f t="shared" ca="1" si="8"/>
-        <v>6.89</v>
+        <v>6.8</v>
       </c>
       <c r="AI24">
         <f t="shared" ca="1" si="1"/>
-        <v>13.09</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3518,11 +3521,11 @@
       </c>
       <c r="H25" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>24.49</v>
+        <v>26.49</v>
       </c>
       <c r="I25" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>21.04</v>
+        <v>20.04</v>
       </c>
       <c r="J25" s="2">
         <v>11.26</v>
@@ -3602,7 +3605,7 @@
       </c>
       <c r="AI25">
         <f t="shared" ca="1" si="1"/>
-        <v>13.19</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3633,7 +3636,7 @@
       </c>
       <c r="I26" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>19.04</v>
+        <v>20.04</v>
       </c>
       <c r="J26" s="2">
         <v>14.95</v>
@@ -3713,7 +3716,7 @@
       </c>
       <c r="AI26">
         <f t="shared" ca="1" si="1"/>
-        <v>12.86</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3740,11 +3743,11 @@
       </c>
       <c r="H27" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>26.49</v>
+        <v>25.49</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>20.04</v>
+        <v>22.04</v>
       </c>
       <c r="J27" s="2">
         <v>4.59</v>
@@ -3818,14 +3821,14 @@
       </c>
       <c r="AG27">
         <f ca="1">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>4.6500000000000004</v>
+        <v>4.12</v>
       </c>
       <c r="AH27">
         <v>0</v>
       </c>
       <c r="AI27">
         <f t="shared" ca="1" si="1"/>
-        <v>13.06</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3856,7 +3859,7 @@
       </c>
       <c r="I28" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>19.04</v>
+        <v>22.04</v>
       </c>
       <c r="J28" s="2">
         <v>14.62</v>
@@ -3926,18 +3929,18 @@
       </c>
       <c r="AF28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28">
         <f t="shared" ref="AG28:AG30" ca="1" si="9">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>4.42</v>
+        <v>3.99</v>
       </c>
       <c r="AH28">
         <v>0</v>
       </c>
       <c r="AI28">
         <f t="shared" ca="1" si="1"/>
-        <v>12.93</v>
+        <v>13.36</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3968,7 +3971,7 @@
       </c>
       <c r="I29" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>22.04</v>
+        <v>20.04</v>
       </c>
       <c r="J29" s="2">
         <v>0.26</v>
@@ -4042,14 +4045,14 @@
       </c>
       <c r="AG29">
         <f t="shared" ca="1" si="9"/>
-        <v>3.66</v>
+        <v>3.82</v>
       </c>
       <c r="AH29">
         <v>0</v>
       </c>
       <c r="AI29">
         <f t="shared" ca="1" si="1"/>
-        <v>13.44</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4076,11 +4079,11 @@
       </c>
       <c r="H30" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>26.49</v>
+        <v>24.49</v>
       </c>
       <c r="I30" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>20.04</v>
+        <v>19.04</v>
       </c>
       <c r="J30" s="2">
         <v>10.58</v>
@@ -4154,14 +4157,14 @@
       </c>
       <c r="AG30">
         <f t="shared" ca="1" si="9"/>
-        <v>4.0999999999999996</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="AH30">
         <v>0</v>
       </c>
       <c r="AI30">
         <f t="shared" ca="1" si="1"/>
-        <v>12.8</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4262,7 +4265,7 @@
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31">
         <v>0</v>
@@ -4272,7 +4275,7 @@
       </c>
       <c r="AI31">
         <f t="shared" ca="1" si="1"/>
-        <v>13.02</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4299,11 +4302,11 @@
       </c>
       <c r="H32" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49</v>
+        <v>26.49</v>
       </c>
       <c r="I32" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>19.04</v>
+        <v>22.04</v>
       </c>
       <c r="J32" s="2">
         <v>4.62</v>
@@ -4383,7 +4386,7 @@
       </c>
       <c r="AI32">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4410,11 +4413,11 @@
       </c>
       <c r="H33" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49</v>
+        <v>24.49</v>
       </c>
       <c r="I33" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>19.04</v>
+        <v>20.04</v>
       </c>
       <c r="J33" s="2">
         <v>7.3</v>
@@ -4494,7 +4497,7 @@
       </c>
       <c r="AI33">
         <f t="shared" ca="1" si="1"/>
-        <v>13.59</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4525,7 +4528,7 @@
       </c>
       <c r="I34" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>21.04</v>
+        <v>19.04</v>
       </c>
       <c r="J34" s="2">
         <v>10.72</v>
@@ -4605,7 +4608,7 @@
       </c>
       <c r="AI34">
         <f t="shared" ca="1" si="1"/>
-        <v>13.17</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4632,11 +4635,11 @@
       </c>
       <c r="H35" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49</v>
+        <v>24.49</v>
       </c>
       <c r="I35" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>22.04</v>
+        <v>21.04</v>
       </c>
       <c r="J35" s="2">
         <v>6.98</v>
@@ -4716,7 +4719,7 @@
       </c>
       <c r="AI35">
         <f t="shared" ca="1" si="1"/>
-        <v>13.34</v>
+        <v>12.87</v>
       </c>
     </row>
     <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4747,7 +4750,7 @@
       </c>
       <c r="I36" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>21.04</v>
+        <v>19.04</v>
       </c>
       <c r="J36" s="2">
         <v>8.02</v>
@@ -4827,7 +4830,7 @@
       </c>
       <c r="AI36">
         <f t="shared" ca="1" si="1"/>
-        <v>12.67</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4854,11 +4857,11 @@
       </c>
       <c r="H37" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49</v>
+        <v>26.49</v>
       </c>
       <c r="I37" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>20.04</v>
+        <v>21.04</v>
       </c>
       <c r="J37" s="2">
         <v>8.8699999999999992</v>
@@ -4932,14 +4935,14 @@
       </c>
       <c r="AG37">
         <f ca="1">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>3.31</v>
+        <v>4.17</v>
       </c>
       <c r="AH37">
         <v>0</v>
       </c>
       <c r="AI37">
         <f t="shared" ca="1" si="1"/>
-        <v>12.87</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4966,11 +4969,11 @@
       </c>
       <c r="H38" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>26.49</v>
+        <v>25.49</v>
       </c>
       <c r="I38" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>21.04</v>
+        <v>20.04</v>
       </c>
       <c r="J38" s="2">
         <v>6.35</v>
@@ -5044,14 +5047,14 @@
       </c>
       <c r="AG38">
         <f t="shared" ref="AG38:AG40" ca="1" si="10">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>3.91</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="AH38">
         <v>0</v>
       </c>
       <c r="AI38">
         <f t="shared" ca="1" si="1"/>
-        <v>12.89</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5078,11 +5081,11 @@
       </c>
       <c r="H39" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49</v>
+        <v>25.49</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>20.04</v>
+        <v>22.04</v>
       </c>
       <c r="J39" s="2">
         <v>0.33</v>
@@ -5156,15 +5159,15 @@
       </c>
       <c r="AG39">
         <f t="shared" ca="1" si="10"/>
-        <v>4.0599999999999996</v>
+        <v>3.58</v>
       </c>
       <c r="AH39">
         <f ca="1">ROUND(6+RAND(), 2)</f>
-        <v>6.91</v>
+        <v>6.76</v>
       </c>
       <c r="AI39">
         <f t="shared" ca="1" si="1"/>
-        <v>12.45</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5191,7 +5194,7 @@
       </c>
       <c r="H40" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>26.49</v>
+        <v>23.49</v>
       </c>
       <c r="I40" s="16">
         <f t="shared" ca="1" si="4"/>
@@ -5269,15 +5272,15 @@
       </c>
       <c r="AG40">
         <f t="shared" ca="1" si="10"/>
-        <v>3.93</v>
+        <v>4.93</v>
       </c>
       <c r="AH40">
         <f t="shared" ref="AH40:AH42" ca="1" si="11">ROUND(6+RAND(), 2)</f>
-        <v>6.55</v>
+        <v>6.66</v>
       </c>
       <c r="AI40">
         <f t="shared" ca="1" si="1"/>
-        <v>12.53</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5304,11 +5307,11 @@
       </c>
       <c r="H41" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>25.49</v>
+        <v>26.49</v>
       </c>
       <c r="I41" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>21.04</v>
+        <v>20.04</v>
       </c>
       <c r="J41" s="2">
         <v>12.56</v>
@@ -5385,11 +5388,11 @@
       </c>
       <c r="AH41">
         <f t="shared" ca="1" si="11"/>
-        <v>6.42</v>
+        <v>6.53</v>
       </c>
       <c r="AI41">
         <f t="shared" ca="1" si="1"/>
-        <v>13.09</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5416,11 +5419,11 @@
       </c>
       <c r="H42" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>25.49</v>
+        <v>23.49</v>
       </c>
       <c r="I42" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>19.04</v>
+        <v>21.04</v>
       </c>
       <c r="J42" s="2">
         <v>10.73</v>
@@ -5497,11 +5500,11 @@
       </c>
       <c r="AH42">
         <f t="shared" ca="1" si="11"/>
-        <v>6.24</v>
+        <v>6.7</v>
       </c>
       <c r="AI42">
         <f t="shared" ca="1" si="1"/>
-        <v>12.85</v>
+        <v>13.59</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5532,7 +5535,7 @@
       </c>
       <c r="I43" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>21.04</v>
+        <v>20.04</v>
       </c>
       <c r="J43" s="2">
         <v>3.93</v>
@@ -5602,7 +5605,7 @@
       </c>
       <c r="AF43">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG43">
         <v>0</v>
@@ -5612,7 +5615,7 @@
       </c>
       <c r="AI43">
         <f t="shared" ca="1" si="1"/>
-        <v>13.23</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5721,7 +5724,7 @@
       </c>
       <c r="AI44">
         <f t="shared" ca="1" si="1"/>
-        <v>12.61</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5748,11 +5751,11 @@
       </c>
       <c r="H45" s="16">
         <f t="shared" ref="H45:H74" ca="1" si="12">$H$44+RANDBETWEEN(0,6)</f>
-        <v>31.75</v>
+        <v>29.75</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" ref="I45:I79" ca="1" si="13">$I$44+RANDBETWEEN(1,5)</f>
-        <v>22.19</v>
+        <v>21.19</v>
       </c>
       <c r="J45" s="2">
         <v>5.97</v>
@@ -5832,7 +5835,7 @@
       </c>
       <c r="AI45">
         <f t="shared" ca="1" si="1"/>
-        <v>13.92</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5859,11 +5862,11 @@
       </c>
       <c r="H46" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>31.75</v>
+        <v>26.75</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>21.19</v>
+        <v>22.19</v>
       </c>
       <c r="J46" s="2">
         <v>6.36</v>
@@ -5943,7 +5946,7 @@
       </c>
       <c r="AI46">
         <f t="shared" ca="1" si="1"/>
-        <v>12.68</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5970,11 +5973,11 @@
       </c>
       <c r="H47" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>31.75</v>
+        <v>25.75</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>21.19</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="J47" s="2">
         <v>14.24</v>
@@ -6054,7 +6057,7 @@
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="1"/>
-        <v>13.27</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6081,11 +6084,11 @@
       </c>
       <c r="H48" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>28.75</v>
+        <v>29.75</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>24.19</v>
+        <v>21.19</v>
       </c>
       <c r="J48" s="2">
         <v>2.39</v>
@@ -6165,7 +6168,7 @@
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="1"/>
-        <v>13.18</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6192,11 +6195,11 @@
       </c>
       <c r="H49" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>31.75</v>
+        <v>30.75</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>23.19</v>
+        <v>24.19</v>
       </c>
       <c r="J49" s="2">
         <v>14.53</v>
@@ -6276,7 +6279,7 @@
       </c>
       <c r="AI49">
         <f t="shared" ca="1" si="1"/>
-        <v>12.24</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6307,7 +6310,7 @@
       </c>
       <c r="I50" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>22.19</v>
+        <v>21.19</v>
       </c>
       <c r="J50" s="2">
         <v>1.95</v>
@@ -6377,7 +6380,7 @@
       </c>
       <c r="AF50">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG50">
         <v>0</v>
@@ -6387,7 +6390,7 @@
       </c>
       <c r="AI50">
         <f t="shared" ca="1" si="1"/>
-        <v>13.3</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6414,11 +6417,11 @@
       </c>
       <c r="H51" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>26.75</v>
+        <v>30.75</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>24.19</v>
+        <v>21.19</v>
       </c>
       <c r="J51" s="2">
         <v>4.53</v>
@@ -6488,7 +6491,7 @@
       </c>
       <c r="AF51">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG51">
         <v>0</v>
@@ -6498,7 +6501,7 @@
       </c>
       <c r="AI51">
         <f t="shared" ca="1" si="1"/>
-        <v>13.45</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6525,11 +6528,11 @@
       </c>
       <c r="H52" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>31.75</v>
+        <v>26.75</v>
       </c>
       <c r="I52" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>22.19</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="J52" s="2">
         <v>3.86</v>
@@ -6603,14 +6606,14 @@
       </c>
       <c r="AG52">
         <f ca="1">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>4.5199999999999996</v>
+        <v>4.29</v>
       </c>
       <c r="AH52">
         <v>0</v>
       </c>
       <c r="AI52">
         <f t="shared" ca="1" si="1"/>
-        <v>12.72</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6637,11 +6640,11 @@
       </c>
       <c r="H53" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>26.75</v>
+        <v>31.75</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>23.19</v>
+        <v>24.19</v>
       </c>
       <c r="J53" s="2">
         <v>11.29</v>
@@ -6715,14 +6718,14 @@
       </c>
       <c r="AG53">
         <f t="shared" ref="AG53:AG55" ca="1" si="14">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>4.03</v>
+        <v>4.32</v>
       </c>
       <c r="AH53">
         <v>0</v>
       </c>
       <c r="AI53">
         <f t="shared" ca="1" si="1"/>
-        <v>13.58</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6749,11 +6752,11 @@
       </c>
       <c r="H54" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>29.75</v>
+        <v>31.75</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>20.190000000000001</v>
+        <v>21.19</v>
       </c>
       <c r="J54" s="2">
         <v>2.59</v>
@@ -6827,14 +6830,14 @@
       </c>
       <c r="AG54">
         <f t="shared" ca="1" si="14"/>
-        <v>4.26</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="AH54">
         <v>0</v>
       </c>
       <c r="AI54">
         <f t="shared" ca="1" si="1"/>
-        <v>13.79</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6861,11 +6864,11 @@
       </c>
       <c r="H55" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>27.75</v>
+        <v>29.75</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>24.19</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="J55" s="2">
         <v>9.4700000000000006</v>
@@ -6939,14 +6942,14 @@
       </c>
       <c r="AG55">
         <f t="shared" ca="1" si="14"/>
-        <v>4.08</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="AH55">
         <v>0</v>
       </c>
       <c r="AI55">
         <f t="shared" ca="1" si="1"/>
-        <v>13.17</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6973,11 +6976,11 @@
       </c>
       <c r="H56" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>26.75</v>
+        <v>31.75</v>
       </c>
       <c r="I56" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>21.19</v>
+        <v>22.19</v>
       </c>
       <c r="J56" s="2">
         <v>14.14</v>
@@ -7057,7 +7060,7 @@
       </c>
       <c r="AI56">
         <f t="shared" ca="1" si="1"/>
-        <v>12.78</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7084,11 +7087,11 @@
       </c>
       <c r="H57" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>29.75</v>
+        <v>30.75</v>
       </c>
       <c r="I57" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>24.19</v>
+        <v>22.19</v>
       </c>
       <c r="J57" s="2">
         <v>11.1</v>
@@ -7165,11 +7168,11 @@
       </c>
       <c r="AH57">
         <f ca="1">ROUND(6+RAND(), 2)</f>
-        <v>6.69</v>
+        <v>6.56</v>
       </c>
       <c r="AI57">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7196,7 +7199,7 @@
       </c>
       <c r="H58" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>29.75</v>
+        <v>25.75</v>
       </c>
       <c r="I58" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -7277,11 +7280,11 @@
       </c>
       <c r="AH58">
         <f t="shared" ref="AH58:AH60" ca="1" si="15">ROUND(6+RAND(), 2)</f>
-        <v>6.9</v>
+        <v>6.93</v>
       </c>
       <c r="AI58">
         <f t="shared" ca="1" si="1"/>
-        <v>12.95</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7308,11 +7311,11 @@
       </c>
       <c r="H59" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>30.75</v>
+        <v>31.75</v>
       </c>
       <c r="I59" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>22.19</v>
+        <v>24.19</v>
       </c>
       <c r="J59" s="2">
         <v>1.73</v>
@@ -7389,11 +7392,11 @@
       </c>
       <c r="AH59">
         <f t="shared" ca="1" si="15"/>
-        <v>6.28</v>
+        <v>6.25</v>
       </c>
       <c r="AI59">
         <f t="shared" ca="1" si="1"/>
-        <v>12.6</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7420,11 +7423,11 @@
       </c>
       <c r="H60" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>31.75</v>
+        <v>30.75</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>20.190000000000001</v>
+        <v>23.19</v>
       </c>
       <c r="J60" s="2">
         <v>9.27</v>
@@ -7501,11 +7504,11 @@
       </c>
       <c r="AH60">
         <f t="shared" ca="1" si="15"/>
-        <v>6.6</v>
+        <v>6.99</v>
       </c>
       <c r="AI60">
         <f t="shared" ca="1" si="1"/>
-        <v>12.61</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="61" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7532,7 +7535,7 @@
       </c>
       <c r="H61" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>31.75</v>
+        <v>25.75</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -7616,7 +7619,7 @@
       </c>
       <c r="AI61">
         <f t="shared" ca="1" si="1"/>
-        <v>13.5</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7643,11 +7646,11 @@
       </c>
       <c r="H62" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>28.75</v>
+        <v>31.75</v>
       </c>
       <c r="I62" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>23.19</v>
+        <v>21.19</v>
       </c>
       <c r="J62" s="2">
         <v>11.9</v>
@@ -7727,7 +7730,7 @@
       </c>
       <c r="AI62">
         <f t="shared" ca="1" si="1"/>
-        <v>12.75</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7754,11 +7757,11 @@
       </c>
       <c r="H63" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>29.75</v>
+        <v>27.75</v>
       </c>
       <c r="I63" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>21.19</v>
+        <v>23.19</v>
       </c>
       <c r="J63" s="2">
         <v>10.71</v>
@@ -7828,7 +7831,7 @@
       </c>
       <c r="AF63">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG63">
         <v>0</v>
@@ -7838,7 +7841,7 @@
       </c>
       <c r="AI63">
         <f t="shared" ca="1" si="1"/>
-        <v>12.88</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7865,11 +7868,11 @@
       </c>
       <c r="H64" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>25.75</v>
+        <v>31.75</v>
       </c>
       <c r="I64" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>21.19</v>
+        <v>24.19</v>
       </c>
       <c r="J64" s="2">
         <v>2.52</v>
@@ -7949,7 +7952,7 @@
       </c>
       <c r="AI64">
         <f t="shared" ca="1" si="1"/>
-        <v>12.61</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7976,7 +7979,7 @@
       </c>
       <c r="H65" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>26.75</v>
+        <v>31.75</v>
       </c>
       <c r="I65" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -8060,7 +8063,7 @@
       </c>
       <c r="AI65">
         <f t="shared" ca="1" si="1"/>
-        <v>13.07</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8087,7 +8090,7 @@
       </c>
       <c r="H66" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>25.75</v>
+        <v>29.75</v>
       </c>
       <c r="I66" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -8171,7 +8174,7 @@
       </c>
       <c r="AI66">
         <f t="shared" ca="1" si="1"/>
-        <v>12.63</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8198,11 +8201,11 @@
       </c>
       <c r="H67" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>25.75</v>
+        <v>28.75</v>
       </c>
       <c r="I67" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>22.19</v>
+        <v>23.19</v>
       </c>
       <c r="J67" s="2">
         <v>4.5599999999999996</v>
@@ -8282,7 +8285,7 @@
       </c>
       <c r="AI67">
         <f t="shared" ref="AI67:AI117" ca="1" si="17">ROUND(12+RAND()+RAND(), 2)</f>
-        <v>13.95</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8313,7 +8316,7 @@
       </c>
       <c r="I68" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>21.19</v>
+        <v>23.19</v>
       </c>
       <c r="J68" s="2">
         <v>2.4</v>
@@ -8387,14 +8390,14 @@
       </c>
       <c r="AG68">
         <f ca="1">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>3.51</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="AH68">
         <v>0</v>
       </c>
       <c r="AI68">
         <f t="shared" ca="1" si="17"/>
-        <v>13.71</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8421,11 +8424,11 @@
       </c>
       <c r="H69" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>31.75</v>
+        <v>28.75</v>
       </c>
       <c r="I69" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>24.19</v>
+        <v>21.19</v>
       </c>
       <c r="J69" s="2">
         <v>14.85</v>
@@ -8499,14 +8502,14 @@
       </c>
       <c r="AG69">
         <f t="shared" ref="AG69:AG71" ca="1" si="18">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>4.51</v>
+        <v>4.55</v>
       </c>
       <c r="AH69">
         <v>0</v>
       </c>
       <c r="AI69">
         <f t="shared" ca="1" si="17"/>
-        <v>12.75</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8533,7 +8536,7 @@
       </c>
       <c r="H70" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>30.75</v>
+        <v>29.75</v>
       </c>
       <c r="I70" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -8611,14 +8614,14 @@
       </c>
       <c r="AG70">
         <f t="shared" ca="1" si="18"/>
-        <v>4.8099999999999996</v>
+        <v>3.78</v>
       </c>
       <c r="AH70">
         <v>0</v>
       </c>
       <c r="AI70">
         <f t="shared" ca="1" si="17"/>
-        <v>13.43</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8645,11 +8648,11 @@
       </c>
       <c r="H71" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>27.75</v>
+        <v>25.75</v>
       </c>
       <c r="I71" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>23.19</v>
+        <v>22.19</v>
       </c>
       <c r="J71" s="2">
         <v>0.62</v>
@@ -8723,14 +8726,14 @@
       </c>
       <c r="AG71">
         <f t="shared" ca="1" si="18"/>
-        <v>4.26</v>
+        <v>3.39</v>
       </c>
       <c r="AH71">
         <v>0</v>
       </c>
       <c r="AI71">
         <f t="shared" ca="1" si="17"/>
-        <v>12.9</v>
+        <v>13.78</v>
       </c>
     </row>
     <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8757,11 +8760,11 @@
       </c>
       <c r="H72" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>27.75</v>
+        <v>25.75</v>
       </c>
       <c r="I72" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>22.19</v>
+        <v>24.19</v>
       </c>
       <c r="J72" s="2">
         <v>11.79</v>
@@ -8841,7 +8844,7 @@
       </c>
       <c r="AI72">
         <f t="shared" ca="1" si="17"/>
-        <v>12.83</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="73" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8868,11 +8871,11 @@
       </c>
       <c r="H73" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>25.75</v>
+        <v>27.75</v>
       </c>
       <c r="I73" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>21.19</v>
+        <v>24.19</v>
       </c>
       <c r="J73" s="2">
         <v>12.38</v>
@@ -8952,7 +8955,7 @@
       </c>
       <c r="AI73">
         <f t="shared" ca="1" si="17"/>
-        <v>12.79</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8979,11 +8982,11 @@
       </c>
       <c r="H74" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>27.75</v>
+        <v>29.75</v>
       </c>
       <c r="I74" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>20.190000000000001</v>
+        <v>21.19</v>
       </c>
       <c r="J74" s="2">
         <v>6.72</v>
@@ -9060,11 +9063,11 @@
       </c>
       <c r="AH74">
         <f ca="1">ROUND(6+RAND(), 2)</f>
-        <v>6.23</v>
+        <v>6</v>
       </c>
       <c r="AI74">
         <f t="shared" ca="1" si="17"/>
-        <v>13.11</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="75" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9091,7 +9094,7 @@
       </c>
       <c r="H75" s="16">
         <f ca="1">$H$44+RANDBETWEEN(1,6)</f>
-        <v>31.75</v>
+        <v>26.75</v>
       </c>
       <c r="I75" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -9172,11 +9175,11 @@
       </c>
       <c r="AH75">
         <f t="shared" ref="AH75:AH77" ca="1" si="19">ROUND(6+RAND(), 2)</f>
-        <v>6.77</v>
+        <v>6.92</v>
       </c>
       <c r="AI75">
         <f t="shared" ca="1" si="17"/>
-        <v>12.01</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9203,11 +9206,11 @@
       </c>
       <c r="H76" s="16">
         <f ca="1">$H$44+RANDBETWEEN(0,6)</f>
-        <v>30.75</v>
+        <v>31.75</v>
       </c>
       <c r="I76" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>22.19</v>
+        <v>23.19</v>
       </c>
       <c r="J76" s="2">
         <v>0.23</v>
@@ -9284,11 +9287,11 @@
       </c>
       <c r="AH76">
         <f t="shared" ca="1" si="19"/>
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="AI76">
         <f t="shared" ca="1" si="17"/>
-        <v>12.94</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9319,7 +9322,7 @@
       </c>
       <c r="I77" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>24.19</v>
+        <v>22.19</v>
       </c>
       <c r="J77" s="2">
         <v>12.31</v>
@@ -9389,18 +9392,18 @@
       </c>
       <c r="AF77">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG77">
         <v>0</v>
       </c>
       <c r="AH77">
         <f t="shared" ca="1" si="19"/>
-        <v>6.08</v>
+        <v>6.11</v>
       </c>
       <c r="AI77">
         <f t="shared" ca="1" si="17"/>
-        <v>12.96</v>
+        <v>13.22</v>
       </c>
     </row>
     <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9427,11 +9430,11 @@
       </c>
       <c r="H78" s="16">
         <f ca="1">$H$44+RANDBETWEEN(0,6)</f>
-        <v>25.75</v>
+        <v>28.75</v>
       </c>
       <c r="I78" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>20.190000000000001</v>
+        <v>22.19</v>
       </c>
       <c r="J78" s="2">
         <v>3.83</v>
@@ -9511,7 +9514,7 @@
       </c>
       <c r="AI78">
         <f t="shared" ca="1" si="17"/>
-        <v>12.69</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="79" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9541,7 +9544,7 @@
       </c>
       <c r="I79" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>23.19</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="J79" s="2">
         <v>0.52</v>
@@ -9621,7 +9624,7 @@
       </c>
       <c r="AI79">
         <f t="shared" ca="1" si="17"/>
-        <v>13.6</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9648,7 +9651,7 @@
       </c>
       <c r="H80" s="16">
         <f ca="1">$H$79+RANDBETWEEN(1,5)</f>
-        <v>38.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="I80" s="2">
         <v>25.65</v>
@@ -9731,7 +9734,7 @@
       </c>
       <c r="AI80">
         <f t="shared" ca="1" si="17"/>
-        <v>13.53</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9758,11 +9761,11 @@
       </c>
       <c r="H81" s="16">
         <f t="shared" ref="H81:H117" ca="1" si="20">$H$79+RANDBETWEEN(1,5)</f>
-        <v>37.700000000000003</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="I81" s="2">
         <f ca="1">$I$80+RANDBETWEEN(2,4)</f>
-        <v>27.65</v>
+        <v>29.65</v>
       </c>
       <c r="J81" s="2">
         <v>0.8</v>
@@ -9842,7 +9845,7 @@
       </c>
       <c r="AI81">
         <f t="shared" ca="1" si="17"/>
-        <v>12.59</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9869,7 +9872,7 @@
       </c>
       <c r="H82" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>35.700000000000003</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="I82" s="2">
         <f t="shared" ref="I82:I117" ca="1" si="21">$I$80+RANDBETWEEN(2,4)</f>
@@ -9953,7 +9956,7 @@
       </c>
       <c r="AI82">
         <f t="shared" ca="1" si="17"/>
-        <v>13.75</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9980,7 +9983,7 @@
       </c>
       <c r="H83" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>37.700000000000003</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I83" s="2">
         <f t="shared" ca="1" si="21"/>
@@ -10054,7 +10057,7 @@
       </c>
       <c r="AF83">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG83">
         <v>0</v>
@@ -10064,7 +10067,7 @@
       </c>
       <c r="AI83">
         <f t="shared" ca="1" si="17"/>
-        <v>13.32</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="84" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10091,11 +10094,11 @@
       </c>
       <c r="H84" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>38.700000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I84" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>29.65</v>
+        <v>27.65</v>
       </c>
       <c r="J84" s="2">
         <v>0.82</v>
@@ -10175,7 +10178,7 @@
       </c>
       <c r="AI84">
         <f t="shared" ca="1" si="17"/>
-        <v>12.96</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="85" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10202,11 +10205,11 @@
       </c>
       <c r="H85" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>34.700000000000003</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="I85" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>28.65</v>
+        <v>27.65</v>
       </c>
       <c r="J85" s="2">
         <v>4.9000000000000004</v>
@@ -10286,7 +10289,7 @@
       </c>
       <c r="AI85">
         <f t="shared" ca="1" si="17"/>
-        <v>13.69</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="86" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10313,7 +10316,7 @@
       </c>
       <c r="H86" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>35.700000000000003</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I86" s="2">
         <f t="shared" ca="1" si="21"/>
@@ -10397,7 +10400,7 @@
       </c>
       <c r="AI86">
         <f t="shared" ca="1" si="17"/>
-        <v>13.3</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10424,11 +10427,11 @@
       </c>
       <c r="H87" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>34.700000000000003</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I87" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>28.65</v>
+        <v>27.65</v>
       </c>
       <c r="J87" s="2">
         <v>0.49</v>
@@ -10509,7 +10512,7 @@
       </c>
       <c r="AI87">
         <f t="shared" ca="1" si="17"/>
-        <v>13.04</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="88" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10536,7 +10539,7 @@
       </c>
       <c r="H88" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>36.700000000000003</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="I88" s="2">
         <f t="shared" ca="1" si="21"/>
@@ -10621,7 +10624,7 @@
       </c>
       <c r="AI88">
         <f t="shared" ca="1" si="17"/>
-        <v>12.99</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="89" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10648,11 +10651,11 @@
       </c>
       <c r="H89" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>38.700000000000003</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I89" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>29.65</v>
+        <v>27.65</v>
       </c>
       <c r="J89" s="2">
         <v>9.8000000000000007</v>
@@ -10726,14 +10729,14 @@
       </c>
       <c r="AG89">
         <f t="shared" ref="AG89:AG91" ca="1" si="22">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>3.46</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="AH89">
         <v>0</v>
       </c>
       <c r="AI89">
         <f t="shared" ca="1" si="17"/>
-        <v>13.35</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="90" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10760,11 +10763,11 @@
       </c>
       <c r="H90" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>37.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="I90" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>28.65</v>
+        <v>29.65</v>
       </c>
       <c r="J90" s="2">
         <v>7.6</v>
@@ -10838,14 +10841,14 @@
       </c>
       <c r="AG90">
         <f t="shared" ca="1" si="22"/>
-        <v>3.95</v>
+        <v>4.51</v>
       </c>
       <c r="AH90">
         <v>0</v>
       </c>
       <c r="AI90">
         <f t="shared" ca="1" si="17"/>
-        <v>12.87</v>
+        <v>13.41</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10872,11 +10875,11 @@
       </c>
       <c r="H91" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>38.700000000000003</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="I91" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>28.65</v>
+        <v>27.65</v>
       </c>
       <c r="J91" s="2">
         <v>3.73</v>
@@ -10946,18 +10949,18 @@
       </c>
       <c r="AF91">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG91">
         <f t="shared" ca="1" si="22"/>
-        <v>3.92</v>
+        <v>4.22</v>
       </c>
       <c r="AH91">
         <v>0</v>
       </c>
       <c r="AI91">
         <f t="shared" ca="1" si="17"/>
-        <v>13.23</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="92" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10984,7 +10987,7 @@
       </c>
       <c r="H92" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>38.700000000000003</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I92" s="2">
         <f t="shared" ca="1" si="21"/>
@@ -11068,7 +11071,7 @@
       </c>
       <c r="AI92">
         <f t="shared" ca="1" si="17"/>
-        <v>12.49</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="93" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11099,7 +11102,7 @@
       </c>
       <c r="I93" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>29.65</v>
       </c>
       <c r="J93" s="2">
         <v>4.38</v>
@@ -11179,7 +11182,7 @@
       </c>
       <c r="AI93">
         <f t="shared" ca="1" si="17"/>
-        <v>12.72</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="94" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11206,11 +11209,11 @@
       </c>
       <c r="H94" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>34.700000000000003</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I94" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>29.65</v>
       </c>
       <c r="J94" s="2">
         <v>12.82</v>
@@ -11290,7 +11293,7 @@
       </c>
       <c r="AI94">
         <f t="shared" ca="1" si="17"/>
-        <v>12.24</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11317,7 +11320,7 @@
       </c>
       <c r="H95" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>37.700000000000003</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="I95" s="2">
         <f t="shared" ca="1" si="21"/>
@@ -11401,7 +11404,7 @@
       </c>
       <c r="AI95">
         <f t="shared" ca="1" si="17"/>
-        <v>13.36</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11428,11 +11431,11 @@
       </c>
       <c r="H96" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>34.700000000000003</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="I96" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>28.65</v>
       </c>
       <c r="J96" s="2">
         <v>2.08</v>
@@ -11502,18 +11505,18 @@
       </c>
       <c r="AF96">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG96">
         <v>0</v>
       </c>
       <c r="AH96">
         <f ca="1">ROUND(6+RAND(), 2)</f>
-        <v>7</v>
+        <v>6.93</v>
       </c>
       <c r="AI96">
         <f t="shared" ca="1" si="17"/>
-        <v>12.12</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="97" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11533,14 +11536,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G97" s="14">
         <v>45453</v>
       </c>
       <c r="H97" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>37.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="I97" s="2">
         <f t="shared" ca="1" si="21"/>
@@ -11621,11 +11624,11 @@
       </c>
       <c r="AH97">
         <f t="shared" ref="AH97:AH99" ca="1" si="23">ROUND(6+RAND(), 2)</f>
-        <v>6.92</v>
+        <v>6.2</v>
       </c>
       <c r="AI97">
         <f t="shared" ca="1" si="17"/>
-        <v>13.29</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11645,18 +11648,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G98" s="14">
         <v>45454</v>
       </c>
       <c r="H98" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>34.700000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I98" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>29.65</v>
       </c>
       <c r="J98" s="2">
         <v>11.52</v>
@@ -11733,11 +11736,11 @@
       </c>
       <c r="AH98">
         <f t="shared" ca="1" si="23"/>
-        <v>6.59</v>
+        <v>6.6</v>
       </c>
       <c r="AI98">
         <f t="shared" ca="1" si="17"/>
-        <v>12.35</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="99" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11757,18 +11760,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G99" s="14">
         <v>45455</v>
       </c>
       <c r="H99" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>37.700000000000003</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="I99" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>29.65</v>
+        <v>28.65</v>
       </c>
       <c r="J99" s="2">
         <v>3.85</v>
@@ -11845,11 +11848,11 @@
       </c>
       <c r="AH99">
         <f t="shared" ca="1" si="23"/>
-        <v>6.79</v>
+        <v>6.4</v>
       </c>
       <c r="AI99">
         <f t="shared" ca="1" si="17"/>
-        <v>13.24</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="100" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11869,14 +11872,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G100" s="14">
         <v>45456</v>
       </c>
       <c r="H100" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>36.700000000000003</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="I100" s="2">
         <f t="shared" ca="1" si="21"/>
@@ -11960,7 +11963,7 @@
       </c>
       <c r="AI100">
         <f t="shared" ca="1" si="17"/>
-        <v>13.18</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11980,18 +11983,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G101" s="14">
         <v>45457</v>
       </c>
       <c r="H101" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>36.700000000000003</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="I101" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>29.65</v>
       </c>
       <c r="J101" s="2">
         <v>4.6399999999999997</v>
@@ -12071,7 +12074,7 @@
       </c>
       <c r="AI101">
         <f t="shared" ca="1" si="17"/>
-        <v>13.32</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12091,18 +12094,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G102" s="14">
         <v>45458</v>
       </c>
       <c r="H102" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>38.700000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I102" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>28.65</v>
+        <v>29.65</v>
       </c>
       <c r="J102" s="2">
         <v>7.64</v>
@@ -12202,7 +12205,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G103" s="14">
         <v>45459</v>
@@ -12213,7 +12216,7 @@
       </c>
       <c r="I103" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>28.65</v>
       </c>
       <c r="J103" s="2">
         <v>9.48</v>
@@ -12293,7 +12296,7 @@
       </c>
       <c r="AI103">
         <f t="shared" ca="1" si="17"/>
-        <v>13.61</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12313,14 +12316,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G104" s="14">
         <v>45460</v>
       </c>
       <c r="H104" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>34.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="I104" s="2">
         <f t="shared" ca="1" si="21"/>
@@ -12404,7 +12407,7 @@
       </c>
       <c r="AI104">
         <f t="shared" ca="1" si="17"/>
-        <v>13.7</v>
+        <v>13.57</v>
       </c>
     </row>
     <row r="105" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12424,7 +12427,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G105" s="14">
         <v>45461</v>
@@ -12515,7 +12518,7 @@
       </c>
       <c r="AI105">
         <f t="shared" ca="1" si="17"/>
-        <v>12.64</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12535,14 +12538,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G106" s="14">
         <v>45462</v>
       </c>
       <c r="H106" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>35.700000000000003</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="I106" s="2">
         <f t="shared" ca="1" si="21"/>
@@ -12626,7 +12629,7 @@
       </c>
       <c r="AI106">
         <f t="shared" ca="1" si="17"/>
-        <v>13.21</v>
+        <v>13.59</v>
       </c>
     </row>
     <row r="107" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12646,18 +12649,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G107" s="14">
         <v>45463</v>
       </c>
       <c r="H107" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>38.700000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I107" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>29.65</v>
+        <v>27.65</v>
       </c>
       <c r="J107" s="2">
         <v>8.86</v>
@@ -12737,7 +12740,7 @@
       </c>
       <c r="AI107">
         <f t="shared" ca="1" si="17"/>
-        <v>12.93</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="108" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12757,14 +12760,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G108" s="14">
         <v>45464</v>
       </c>
       <c r="H108" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>37.700000000000003</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I108" s="2">
         <f t="shared" ca="1" si="21"/>
@@ -12848,7 +12851,7 @@
       </c>
       <c r="AI108">
         <f t="shared" ca="1" si="17"/>
-        <v>12.86</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12868,18 +12871,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G109" s="14">
         <v>45465</v>
       </c>
       <c r="H109" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>34.700000000000003</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I109" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>28.65</v>
+        <v>27.65</v>
       </c>
       <c r="J109" s="2">
         <v>14.62</v>
@@ -12959,7 +12962,7 @@
       </c>
       <c r="AI109">
         <f t="shared" ca="1" si="17"/>
-        <v>13.43</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="110" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12979,18 +12982,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G110" s="14">
         <v>45466</v>
       </c>
       <c r="H110" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>38.700000000000003</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="I110" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>29.65</v>
       </c>
       <c r="J110" s="2">
         <v>5.15</v>
@@ -13070,7 +13073,7 @@
       </c>
       <c r="AI110">
         <f t="shared" ca="1" si="17"/>
-        <v>13.64</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13090,7 +13093,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G111" s="14">
         <v>45467</v>
@@ -13178,11 +13181,11 @@
       </c>
       <c r="AH111">
         <f ca="1">ROUND(6+RAND(), 2)</f>
-        <v>6.58</v>
+        <v>6.54</v>
       </c>
       <c r="AI111">
         <f t="shared" ca="1" si="17"/>
-        <v>13.53</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="112" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13202,18 +13205,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G112" s="14">
         <v>45468</v>
       </c>
       <c r="H112" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>36.700000000000003</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="I112" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>29.65</v>
+        <v>28.65</v>
       </c>
       <c r="J112" s="2">
         <v>9.65</v>
@@ -13290,11 +13293,11 @@
       </c>
       <c r="AH112">
         <f t="shared" ref="AH112:AH114" ca="1" si="24">ROUND(6+RAND(), 2)</f>
-        <v>6.82</v>
+        <v>6.55</v>
       </c>
       <c r="AI112">
         <f t="shared" ca="1" si="17"/>
-        <v>13.05</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="113" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13314,18 +13317,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G113" s="14">
         <v>45469</v>
       </c>
       <c r="H113" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>35.700000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I113" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>29.65</v>
+        <v>28.65</v>
       </c>
       <c r="J113" s="2">
         <v>2.29</v>
@@ -13402,11 +13405,11 @@
       </c>
       <c r="AH113">
         <f t="shared" ca="1" si="24"/>
-        <v>6.37</v>
+        <v>6.12</v>
       </c>
       <c r="AI113">
         <f t="shared" ca="1" si="17"/>
-        <v>12.86</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="114" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13426,14 +13429,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G114" s="14">
         <v>45470</v>
       </c>
       <c r="H114" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>34.700000000000003</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I114" s="2">
         <f t="shared" ca="1" si="21"/>
@@ -13514,11 +13517,11 @@
       </c>
       <c r="AH114">
         <f t="shared" ca="1" si="24"/>
-        <v>6.01</v>
+        <v>6.66</v>
       </c>
       <c r="AI114">
         <f t="shared" ca="1" si="17"/>
-        <v>13.44</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="115" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13538,18 +13541,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G115" s="14">
         <v>45471</v>
       </c>
       <c r="H115" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>35.700000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I115" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>29.65</v>
       </c>
       <c r="J115" s="2">
         <v>6.32</v>
@@ -13619,7 +13622,7 @@
       </c>
       <c r="AF115">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG115">
         <v>0</v>
@@ -13629,7 +13632,7 @@
       </c>
       <c r="AI115">
         <f t="shared" ca="1" si="17"/>
-        <v>13.05</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="116" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13649,18 +13652,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G116" s="14">
         <v>45472</v>
       </c>
       <c r="H116" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>34.700000000000003</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I116" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>29.65</v>
+        <v>27.65</v>
       </c>
       <c r="J116" s="2">
         <v>14.21</v>
@@ -13740,7 +13743,7 @@
       </c>
       <c r="AI116">
         <f t="shared" ca="1" si="17"/>
-        <v>13.12</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="117" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13760,14 +13763,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G117" s="14">
         <v>45473</v>
       </c>
       <c r="H117" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>34.700000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I117" s="2">
         <f t="shared" ca="1" si="21"/>
@@ -13851,7 +13854,7 @@
       </c>
       <c r="AI117">
         <f t="shared" ca="1" si="17"/>
-        <v>12.82</v>
+        <v>13.67</v>
       </c>
     </row>
   </sheetData>
@@ -59204,7 +59207,7 @@
   <customSheetViews>
     <customSheetView guid="{672CCBC4-2407-49A9-8C4F-1CAA4DF8D7D8}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:D24" xr:uid="{8C505606-944E-46B0-AC3E-6D35D2F7C5AA}"/>
+      <autoFilter ref="A1:D24" xr:uid="{B8986228-A929-4F27-9B30-F9ED13CBC198}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="4">

--- a/temp/data/data.xlsx
+++ b/temp/data/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khng0\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hkt\mvp\argo-ai-chatbot\temp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F089FC98-2A6A-4532-A298-901F7FE277B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABA48F7-BC01-4D76-9942-63261B2EC132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,19 @@
   <customWorkbookViews>
     <customWorkbookView name="Filtering" guid="{672CCBC4-2407-49A9-8C4F-1CAA4DF8D7D8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -81,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3763" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3763" uniqueCount="103">
   <si>
     <t>facility</t>
   </si>
@@ -362,9 +375,6 @@
     <t>soil_moisture_40</t>
   </si>
   <si>
-    <t>dolphin</t>
-  </si>
-  <si>
     <t>Bao Trình, thị trấn Diêm Điền, huyện Thái Thụy, tỉnh Thái Bình</t>
   </si>
   <si>
@@ -392,7 +402,7 @@
     <t>continuous_flooding</t>
   </si>
   <si>
-    <t>nongtraixanh</t>
+    <t>farm1A</t>
   </si>
 </sst>
 </file>
@@ -806,8 +816,8 @@
   </sheetPr>
   <dimension ref="A1:AI117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -910,30 +920,30 @@
         <v>89</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D2" s="2">
         <v>106.56213138823</v>
@@ -942,7 +952,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G2" s="14">
         <v>45356</v>
@@ -1017,11 +1027,11 @@
         <v>90</v>
       </c>
       <c r="AE2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF2">
         <f ca="1">IF(RAND() &lt; 0.95, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -1031,18 +1041,18 @@
       </c>
       <c r="AI2">
         <f ca="1">ROUND(12+RAND()+RAND(), 2)</f>
-        <v>13.03</v>
+        <v>13.14</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D3" s="2">
         <v>106.56213138823</v>
@@ -1051,18 +1061,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G3" s="14">
         <v>45357</v>
       </c>
       <c r="H3" s="16">
         <f ca="1">$H$2+RANDBETWEEN(0,3)</f>
-        <v>25.49</v>
+        <v>24.49</v>
       </c>
       <c r="I3" s="16">
         <f ca="1">$I$2+RANDBETWEEN(0,3)</f>
-        <v>22.04</v>
+        <v>20.04</v>
       </c>
       <c r="J3" s="2">
         <v>1.26</v>
@@ -1128,7 +1138,7 @@
         <v>90</v>
       </c>
       <c r="AE3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF66" ca="1" si="0">IF(RAND() &lt; 0.95, 1, 0)</f>
@@ -1142,18 +1152,18 @@
       </c>
       <c r="AI3">
         <f t="shared" ref="AI3:AI66" ca="1" si="1">ROUND(12+RAND()+RAND(), 2)</f>
-        <v>12.54</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D4" s="2">
         <v>106.56213138823</v>
@@ -1162,18 +1172,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G4" s="14">
         <v>45358</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4:H43" ca="1" si="2">$H$2+RANDBETWEEN(0,3)</f>
-        <v>26.49</v>
+        <v>25.49</v>
       </c>
       <c r="I4" s="16">
         <f ca="1">$I$2+RANDBETWEEN(0,3)</f>
-        <v>20.04</v>
+        <v>22.04</v>
       </c>
       <c r="J4" s="2">
         <v>2.42</v>
@@ -1239,7 +1249,7 @@
         <v>90</v>
       </c>
       <c r="AE4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="0"/>
@@ -1250,22 +1260,22 @@
       </c>
       <c r="AH4">
         <f ca="1">ROUND(6+RAND(), 2)</f>
-        <v>6.64</v>
+        <v>6.77</v>
       </c>
       <c r="AI4">
         <f t="shared" ca="1" si="1"/>
-        <v>12.45</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D5" s="2">
         <v>106.56213138823</v>
@@ -1274,14 +1284,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G5" s="14">
         <v>45359</v>
       </c>
       <c r="H5" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>26.49</v>
+        <v>25.49</v>
       </c>
       <c r="I5" s="16">
         <v>18.5</v>
@@ -1350,7 +1360,7 @@
         <v>90</v>
       </c>
       <c r="AE5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="0"/>
@@ -1361,22 +1371,22 @@
       </c>
       <c r="AH5">
         <f t="shared" ref="AH5:AH7" ca="1" si="3">ROUND(6+RAND(), 2)</f>
-        <v>6.92</v>
+        <v>6.8</v>
       </c>
       <c r="AI5">
         <f t="shared" ca="1" si="1"/>
-        <v>13.18</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D6" s="2">
         <v>106.56213138823</v>
@@ -1385,14 +1395,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G6" s="14">
         <v>45360</v>
       </c>
       <c r="H6" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>25.49</v>
+        <v>24.49</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" ref="I6:I43" ca="1" si="4">$I$2+RANDBETWEEN(0,3)</f>
@@ -1462,7 +1472,7 @@
         <v>90</v>
       </c>
       <c r="AE6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="0"/>
@@ -1470,26 +1480,26 @@
       </c>
       <c r="AG6">
         <f ca="1">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>4.18</v>
+        <v>3.94</v>
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="3"/>
-        <v>6.28</v>
+        <v>6.05</v>
       </c>
       <c r="AI6">
         <f t="shared" ca="1" si="1"/>
-        <v>12.94</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D7" s="2">
         <v>106.56213138823</v>
@@ -1498,18 +1508,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G7" s="14">
         <v>45361</v>
       </c>
       <c r="H7" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>24.49</v>
+        <v>23.49</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>22.04</v>
+        <v>19.04</v>
       </c>
       <c r="J7" s="2">
         <v>3.73</v>
@@ -1575,7 +1585,7 @@
         <v>90</v>
       </c>
       <c r="AE7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="0"/>
@@ -1583,26 +1593,26 @@
       </c>
       <c r="AG7">
         <f t="shared" ref="AG7:AG10" ca="1" si="5">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>3.57</v>
+        <v>3.29</v>
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="3"/>
-        <v>6.23</v>
+        <v>6.41</v>
       </c>
       <c r="AI7">
         <f t="shared" ca="1" si="1"/>
-        <v>13.59</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D8" s="2">
         <v>106.56213138823</v>
@@ -1611,14 +1621,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G8" s="14">
         <v>45362</v>
       </c>
       <c r="H8" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>25.49</v>
+        <v>23.49</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" ca="1" si="4"/>
@@ -1688,7 +1698,7 @@
         <v>90</v>
       </c>
       <c r="AE8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="0"/>
@@ -1696,25 +1706,25 @@
       </c>
       <c r="AG8">
         <f t="shared" ca="1" si="5"/>
-        <v>4.1100000000000003</v>
+        <v>3.09</v>
       </c>
       <c r="AH8">
         <v>0</v>
       </c>
       <c r="AI8">
         <f t="shared" ca="1" si="1"/>
-        <v>12.92</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D9" s="2">
         <v>106.56213138823</v>
@@ -1723,7 +1733,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G9" s="14">
         <v>45363</v>
@@ -1734,7 +1744,7 @@
       </c>
       <c r="I9" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>22.04</v>
+        <v>19.04</v>
       </c>
       <c r="J9" s="2">
         <v>9.36</v>
@@ -1800,7 +1810,7 @@
         <v>90</v>
       </c>
       <c r="AE9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="0"/>
@@ -1808,25 +1818,25 @@
       </c>
       <c r="AG9">
         <f t="shared" ca="1" si="5"/>
-        <v>3.65</v>
+        <v>3.52</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
         <f t="shared" ca="1" si="1"/>
-        <v>13.1</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D10" s="2">
         <v>106.56213138823</v>
@@ -1835,18 +1845,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G10" s="14">
         <v>45364</v>
       </c>
       <c r="H10" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49</v>
+        <v>24.49</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>19.04</v>
+        <v>20.04</v>
       </c>
       <c r="J10" s="2">
         <v>14.82</v>
@@ -1912,7 +1922,7 @@
         <v>90</v>
       </c>
       <c r="AE10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="0"/>
@@ -1920,25 +1930,25 @@
       </c>
       <c r="AG10">
         <f t="shared" ca="1" si="5"/>
-        <v>4.07</v>
+        <v>3.72</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
         <f t="shared" ca="1" si="1"/>
-        <v>12.38</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D11" s="2">
         <v>106.56213138823</v>
@@ -1947,7 +1957,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G11" s="14">
         <v>45365</v>
@@ -1958,7 +1968,7 @@
       </c>
       <c r="I11" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>22.04</v>
+        <v>20.04</v>
       </c>
       <c r="J11" s="2">
         <v>5.22</v>
@@ -2024,7 +2034,7 @@
         <v>90</v>
       </c>
       <c r="AE11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="0"/>
@@ -2038,18 +2048,18 @@
       </c>
       <c r="AI11">
         <f t="shared" ca="1" si="1"/>
-        <v>13.24</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D12" s="2">
         <v>106.56213138823</v>
@@ -2058,7 +2068,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G12" s="14">
         <v>45366</v>
@@ -2135,7 +2145,7 @@
         <v>90</v>
       </c>
       <c r="AE12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="0"/>
@@ -2149,18 +2159,18 @@
       </c>
       <c r="AI12">
         <f t="shared" ca="1" si="1"/>
-        <v>12.72</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D13" s="2">
         <v>106.56213138823</v>
@@ -2169,18 +2179,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G13" s="14">
         <v>45367</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>26.49</v>
+        <v>25.49</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>22.04</v>
+        <v>19.04</v>
       </c>
       <c r="J13" s="2">
         <v>7.47</v>
@@ -2246,33 +2256,33 @@
         <v>90</v>
       </c>
       <c r="AE13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13">
         <v>0</v>
       </c>
       <c r="AH13">
         <f ca="1">ROUND(6+RAND(), 2)</f>
-        <v>6.03</v>
+        <v>6.23</v>
       </c>
       <c r="AI13">
         <f t="shared" ca="1" si="1"/>
-        <v>12.78</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D14" s="2">
         <v>106.56213138823</v>
@@ -2281,18 +2291,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G14" s="14">
         <v>45368</v>
       </c>
       <c r="H14" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>26.49</v>
+        <v>25.49</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>21.04</v>
+        <v>20.04</v>
       </c>
       <c r="J14" s="2">
         <v>7.4</v>
@@ -2358,7 +2368,7 @@
         <v>90</v>
       </c>
       <c r="AE14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="0"/>
@@ -2369,22 +2379,22 @@
       </c>
       <c r="AH14">
         <f t="shared" ref="AH14:AH16" ca="1" si="6">ROUND(6+RAND(), 2)</f>
-        <v>6.32</v>
+        <v>6.26</v>
       </c>
       <c r="AI14">
         <f t="shared" ca="1" si="1"/>
-        <v>13.65</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D15" s="2">
         <v>106.56213138823</v>
@@ -2393,14 +2403,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G15" s="14">
         <v>45369</v>
       </c>
       <c r="H15" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>25.49</v>
+        <v>24.49</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" ca="1" si="4"/>
@@ -2470,7 +2480,7 @@
         <v>90</v>
       </c>
       <c r="AE15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="0"/>
@@ -2481,22 +2491,22 @@
       </c>
       <c r="AH15">
         <f t="shared" ca="1" si="6"/>
-        <v>6.36</v>
+        <v>6.34</v>
       </c>
       <c r="AI15">
         <f t="shared" ca="1" si="1"/>
-        <v>13.19</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D16" s="2">
         <v>106.56213138823</v>
@@ -2505,7 +2515,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G16" s="14">
         <v>45370</v>
@@ -2582,7 +2592,7 @@
         <v>90</v>
       </c>
       <c r="AE16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="0"/>
@@ -2593,22 +2603,22 @@
       </c>
       <c r="AH16">
         <f t="shared" ca="1" si="6"/>
-        <v>6.98</v>
+        <v>6.61</v>
       </c>
       <c r="AI16">
         <f t="shared" ca="1" si="1"/>
-        <v>13.25</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D17" s="2">
         <v>106.56213138823</v>
@@ -2617,14 +2627,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G17" s="14">
         <v>45371</v>
       </c>
       <c r="H17" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>25.49</v>
+        <v>23.49</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" ca="1" si="4"/>
@@ -2694,7 +2704,7 @@
         <v>90</v>
       </c>
       <c r="AE17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="0"/>
@@ -2708,18 +2718,18 @@
       </c>
       <c r="AI17">
         <f t="shared" ca="1" si="1"/>
-        <v>13.24</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D18" s="2">
         <v>106.56213138823</v>
@@ -2728,18 +2738,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G18" s="14">
         <v>45372</v>
       </c>
       <c r="H18" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>26.49</v>
+        <v>25.49</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>21.04</v>
+        <v>22.04</v>
       </c>
       <c r="J18" s="2">
         <v>12.97</v>
@@ -2805,7 +2815,7 @@
         <v>90</v>
       </c>
       <c r="AE18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF18">
         <f t="shared" ca="1" si="0"/>
@@ -2813,25 +2823,25 @@
       </c>
       <c r="AG18">
         <f ca="1">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>3.37</v>
+        <v>3.36</v>
       </c>
       <c r="AH18">
         <v>0</v>
       </c>
       <c r="AI18">
         <f t="shared" ca="1" si="1"/>
-        <v>12.26</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D19" s="2">
         <v>106.56213138823</v>
@@ -2840,14 +2850,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G19" s="14">
         <v>45373</v>
       </c>
       <c r="H19" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49</v>
+        <v>25.49</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" ca="1" si="4"/>
@@ -2917,7 +2927,7 @@
         <v>90</v>
       </c>
       <c r="AE19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF19">
         <f t="shared" ca="1" si="0"/>
@@ -2925,25 +2935,25 @@
       </c>
       <c r="AG19">
         <f t="shared" ref="AG19:AG22" ca="1" si="7">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>3.54</v>
+        <v>4.2</v>
       </c>
       <c r="AH19">
         <v>0</v>
       </c>
       <c r="AI19">
         <f t="shared" ca="1" si="1"/>
-        <v>13.16</v>
+        <v>13.46</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D20" s="2">
         <v>106.56213138823</v>
@@ -2952,18 +2962,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G20" s="14">
         <v>45374</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>25.49</v>
+        <v>23.49</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>22.04</v>
+        <v>20.04</v>
       </c>
       <c r="J20" s="2">
         <v>6.66</v>
@@ -3029,7 +3039,7 @@
         <v>90</v>
       </c>
       <c r="AE20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF20">
         <f t="shared" ca="1" si="0"/>
@@ -3037,25 +3047,25 @@
       </c>
       <c r="AG20">
         <f t="shared" ca="1" si="7"/>
-        <v>3.51</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="AH20">
         <v>0</v>
       </c>
       <c r="AI20">
         <f t="shared" ca="1" si="1"/>
-        <v>13.06</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D21" s="2">
         <v>106.56213138823</v>
@@ -3064,18 +3074,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G21" s="14">
         <v>45375</v>
       </c>
       <c r="H21" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49</v>
+        <v>26.49</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>20.04</v>
+        <v>22.04</v>
       </c>
       <c r="J21" s="2">
         <v>8.9600000000000009</v>
@@ -3141,7 +3151,7 @@
         <v>90</v>
       </c>
       <c r="AE21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF21">
         <f t="shared" ca="1" si="0"/>
@@ -3149,26 +3159,26 @@
       </c>
       <c r="AG21">
         <f t="shared" ca="1" si="7"/>
-        <v>4.7300000000000004</v>
+        <v>4.29</v>
       </c>
       <c r="AH21">
         <f ca="1">ROUND(6+RAND(), 2)</f>
-        <v>6.94</v>
+        <v>6.3</v>
       </c>
       <c r="AI21">
         <f t="shared" ca="1" si="1"/>
-        <v>12.79</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="C22" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D22" s="2">
         <v>106.56213138823</v>
@@ -3177,14 +3187,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G22" s="14">
         <v>45376</v>
       </c>
       <c r="H22" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49</v>
+        <v>26.49</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" ca="1" si="4"/>
@@ -3254,7 +3264,7 @@
         <v>90</v>
       </c>
       <c r="AE22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF22">
         <f t="shared" ca="1" si="0"/>
@@ -3262,26 +3272,26 @@
       </c>
       <c r="AG22">
         <f t="shared" ca="1" si="7"/>
-        <v>4.29</v>
+        <v>3.28</v>
       </c>
       <c r="AH22">
         <f t="shared" ref="AH22:AH24" ca="1" si="8">ROUND(6+RAND(), 2)</f>
-        <v>6.31</v>
+        <v>6.58</v>
       </c>
       <c r="AI22">
         <f t="shared" ca="1" si="1"/>
-        <v>12.95</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D23" s="2">
         <v>106.56213138823</v>
@@ -3290,18 +3300,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G23" s="14">
         <v>45377</v>
       </c>
       <c r="H23" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>24.49</v>
+        <v>25.49</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>19.04</v>
+        <v>22.04</v>
       </c>
       <c r="J23" s="2">
         <v>10.77</v>
@@ -3367,7 +3377,7 @@
         <v>90</v>
       </c>
       <c r="AE23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF23">
         <f t="shared" ca="1" si="0"/>
@@ -3378,22 +3388,22 @@
       </c>
       <c r="AH23">
         <f t="shared" ca="1" si="8"/>
-        <v>6.18</v>
+        <v>6.78</v>
       </c>
       <c r="AI23">
         <f t="shared" ca="1" si="1"/>
-        <v>13.14</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D24" s="2">
         <v>106.56213138823</v>
@@ -3402,18 +3412,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G24" s="14">
         <v>45378</v>
       </c>
       <c r="H24" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49</v>
+        <v>25.49</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>21.04</v>
+        <v>20.04</v>
       </c>
       <c r="J24" s="2">
         <v>3.77</v>
@@ -3479,7 +3489,7 @@
         <v>90</v>
       </c>
       <c r="AE24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF24">
         <f t="shared" ca="1" si="0"/>
@@ -3490,22 +3500,22 @@
       </c>
       <c r="AH24">
         <f t="shared" ca="1" si="8"/>
-        <v>6.8</v>
+        <v>6.56</v>
       </c>
       <c r="AI24">
         <f t="shared" ca="1" si="1"/>
-        <v>12.2</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D25" s="2">
         <v>106.56213138823</v>
@@ -3514,18 +3524,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G25" s="14">
         <v>45379</v>
       </c>
       <c r="H25" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>26.49</v>
+        <v>23.49</v>
       </c>
       <c r="I25" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>20.04</v>
+        <v>21.04</v>
       </c>
       <c r="J25" s="2">
         <v>11.26</v>
@@ -3591,7 +3601,7 @@
         <v>90</v>
       </c>
       <c r="AE25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF25">
         <f t="shared" ca="1" si="0"/>
@@ -3605,18 +3615,18 @@
       </c>
       <c r="AI25">
         <f t="shared" ca="1" si="1"/>
-        <v>12.96</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D26" s="2">
         <v>106.56213138823</v>
@@ -3625,18 +3635,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G26" s="14">
         <v>45380</v>
       </c>
       <c r="H26" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>26.49</v>
+        <v>23.49</v>
       </c>
       <c r="I26" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>20.04</v>
+        <v>19.04</v>
       </c>
       <c r="J26" s="2">
         <v>14.95</v>
@@ -3702,7 +3712,7 @@
         <v>90</v>
       </c>
       <c r="AE26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF26">
         <f t="shared" ca="1" si="0"/>
@@ -3716,18 +3726,18 @@
       </c>
       <c r="AI26">
         <f t="shared" ca="1" si="1"/>
-        <v>12.79</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D27" s="2">
         <v>106.56213138823</v>
@@ -3736,18 +3746,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G27" s="14">
         <v>45381</v>
       </c>
       <c r="H27" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>25.49</v>
+        <v>23.49</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>22.04</v>
+        <v>19.04</v>
       </c>
       <c r="J27" s="2">
         <v>4.59</v>
@@ -3813,7 +3823,7 @@
         <v>90</v>
       </c>
       <c r="AE27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF27">
         <f t="shared" ca="1" si="0"/>
@@ -3821,25 +3831,25 @@
       </c>
       <c r="AG27">
         <f ca="1">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>4.12</v>
+        <v>4.33</v>
       </c>
       <c r="AH27">
         <v>0</v>
       </c>
       <c r="AI27">
         <f t="shared" ca="1" si="1"/>
-        <v>12.52</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D28" s="2">
         <v>106.56213138823</v>
@@ -3848,7 +3858,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G28" s="14">
         <v>45382</v>
@@ -3859,7 +3869,7 @@
       </c>
       <c r="I28" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>22.04</v>
+        <v>19.04</v>
       </c>
       <c r="J28" s="2">
         <v>14.62</v>
@@ -3925,33 +3935,33 @@
         <v>90</v>
       </c>
       <c r="AE28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF28">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28">
         <f t="shared" ref="AG28:AG30" ca="1" si="9">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>3.99</v>
+        <v>3.96</v>
       </c>
       <c r="AH28">
         <v>0</v>
       </c>
       <c r="AI28">
         <f t="shared" ca="1" si="1"/>
-        <v>13.36</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D29" s="2">
         <v>106.56213138823</v>
@@ -3960,7 +3970,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G29" s="14">
         <v>45383</v>
@@ -3971,7 +3981,7 @@
       </c>
       <c r="I29" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>20.04</v>
+        <v>22.04</v>
       </c>
       <c r="J29" s="2">
         <v>0.26</v>
@@ -4037,7 +4047,7 @@
         <v>90</v>
       </c>
       <c r="AE29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF29">
         <f t="shared" ca="1" si="0"/>
@@ -4045,25 +4055,25 @@
       </c>
       <c r="AG29">
         <f t="shared" ca="1" si="9"/>
-        <v>3.82</v>
+        <v>3.93</v>
       </c>
       <c r="AH29">
         <v>0</v>
       </c>
       <c r="AI29">
         <f t="shared" ca="1" si="1"/>
-        <v>13.03</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D30" s="2">
         <v>106.56213138823</v>
@@ -4072,18 +4082,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G30" s="14">
         <v>45384</v>
       </c>
       <c r="H30" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>24.49</v>
+        <v>26.49</v>
       </c>
       <c r="I30" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>19.04</v>
+        <v>21.04</v>
       </c>
       <c r="J30" s="2">
         <v>10.58</v>
@@ -4149,7 +4159,7 @@
         <v>90</v>
       </c>
       <c r="AE30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF30">
         <f t="shared" ca="1" si="0"/>
@@ -4157,25 +4167,25 @@
       </c>
       <c r="AG30">
         <f t="shared" ca="1" si="9"/>
-        <v>4.3099999999999996</v>
+        <v>4.04</v>
       </c>
       <c r="AH30">
         <v>0</v>
       </c>
       <c r="AI30">
         <f t="shared" ca="1" si="1"/>
-        <v>13.67</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D31" s="2">
         <v>106.56213138823</v>
@@ -4184,18 +4194,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G31" s="14">
         <v>45385</v>
       </c>
       <c r="H31" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>24.49</v>
+        <v>26.49</v>
       </c>
       <c r="I31" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>22.04</v>
+        <v>20.04</v>
       </c>
       <c r="J31" s="2">
         <v>8.9600000000000009</v>
@@ -4261,11 +4271,11 @@
         <v>90</v>
       </c>
       <c r="AE31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31">
         <v>0</v>
@@ -4275,18 +4285,18 @@
       </c>
       <c r="AI31">
         <f t="shared" ca="1" si="1"/>
-        <v>13.45</v>
+        <v>12.44</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D32" s="2">
         <v>106.56213138823</v>
@@ -4295,18 +4305,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G32" s="14">
         <v>45386</v>
       </c>
       <c r="H32" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>26.49</v>
+        <v>25.49</v>
       </c>
       <c r="I32" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>22.04</v>
+        <v>20.04</v>
       </c>
       <c r="J32" s="2">
         <v>4.62</v>
@@ -4372,7 +4382,7 @@
         <v>90</v>
       </c>
       <c r="AE32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF32">
         <f t="shared" ca="1" si="0"/>
@@ -4386,18 +4396,18 @@
       </c>
       <c r="AI32">
         <f t="shared" ca="1" si="1"/>
-        <v>13.09</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D33" s="2">
         <v>106.56213138823</v>
@@ -4406,14 +4416,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G33" s="14">
         <v>45387</v>
       </c>
       <c r="H33" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>24.49</v>
+        <v>23.49</v>
       </c>
       <c r="I33" s="16">
         <f t="shared" ca="1" si="4"/>
@@ -4483,7 +4493,7 @@
         <v>90</v>
       </c>
       <c r="AE33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="0"/>
@@ -4497,18 +4507,18 @@
       </c>
       <c r="AI33">
         <f t="shared" ca="1" si="1"/>
-        <v>12.99</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="C34" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D34" s="2">
         <v>106.56213138823</v>
@@ -4517,18 +4527,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G34" s="14">
         <v>45388</v>
       </c>
       <c r="H34" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49</v>
+        <v>25.49</v>
       </c>
       <c r="I34" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>19.04</v>
+        <v>22.04</v>
       </c>
       <c r="J34" s="2">
         <v>10.72</v>
@@ -4594,7 +4604,7 @@
         <v>90</v>
       </c>
       <c r="AE34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF34">
         <f t="shared" ca="1" si="0"/>
@@ -4608,18 +4618,18 @@
       </c>
       <c r="AI34">
         <f t="shared" ca="1" si="1"/>
-        <v>13.3</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D35" s="2">
         <v>106.56213138823</v>
@@ -4628,14 +4638,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G35" s="14">
         <v>45389</v>
       </c>
       <c r="H35" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>24.49</v>
+        <v>26.49</v>
       </c>
       <c r="I35" s="16">
         <f t="shared" ca="1" si="4"/>
@@ -4705,7 +4715,7 @@
         <v>90</v>
       </c>
       <c r="AE35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF35">
         <f t="shared" ca="1" si="0"/>
@@ -4719,18 +4729,18 @@
       </c>
       <c r="AI35">
         <f t="shared" ca="1" si="1"/>
-        <v>12.87</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D36" s="2">
         <v>106.56213138823</v>
@@ -4739,18 +4749,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G36" s="14">
         <v>45390</v>
       </c>
       <c r="H36" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49</v>
+        <v>24.49</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>19.04</v>
+        <v>20.04</v>
       </c>
       <c r="J36" s="2">
         <v>8.02</v>
@@ -4816,7 +4826,7 @@
         <v>90</v>
       </c>
       <c r="AE36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF36">
         <f t="shared" ca="1" si="0"/>
@@ -4830,18 +4840,18 @@
       </c>
       <c r="AI36">
         <f t="shared" ca="1" si="1"/>
-        <v>13.06</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D37" s="2">
         <v>106.56213138823</v>
@@ -4850,7 +4860,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G37" s="14">
         <v>45391</v>
@@ -4927,7 +4937,7 @@
         <v>90</v>
       </c>
       <c r="AE37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF37">
         <f t="shared" ca="1" si="0"/>
@@ -4935,25 +4945,25 @@
       </c>
       <c r="AG37">
         <f ca="1">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>4.17</v>
+        <v>3.99</v>
       </c>
       <c r="AH37">
         <v>0</v>
       </c>
       <c r="AI37">
         <f t="shared" ca="1" si="1"/>
-        <v>13.16</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D38" s="2">
         <v>106.56213138823</v>
@@ -4962,18 +4972,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G38" s="14">
         <v>45392</v>
       </c>
       <c r="H38" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>25.49</v>
+        <v>24.49</v>
       </c>
       <c r="I38" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>20.04</v>
+        <v>21.04</v>
       </c>
       <c r="J38" s="2">
         <v>6.35</v>
@@ -5039,7 +5049,7 @@
         <v>90</v>
       </c>
       <c r="AE38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF38">
         <f t="shared" ca="1" si="0"/>
@@ -5047,25 +5057,25 @@
       </c>
       <c r="AG38">
         <f t="shared" ref="AG38:AG40" ca="1" si="10">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>4.6399999999999997</v>
+        <v>4.74</v>
       </c>
       <c r="AH38">
         <v>0</v>
       </c>
       <c r="AI38">
         <f t="shared" ca="1" si="1"/>
-        <v>12.22</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="C39" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D39" s="2">
         <v>106.56213138823</v>
@@ -5074,18 +5084,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G39" s="14">
         <v>45393</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>25.49</v>
+        <v>26.49</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>22.04</v>
+        <v>19.04</v>
       </c>
       <c r="J39" s="2">
         <v>0.33</v>
@@ -5151,7 +5161,7 @@
         <v>90</v>
       </c>
       <c r="AE39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF39">
         <f t="shared" ca="1" si="0"/>
@@ -5159,26 +5169,26 @@
       </c>
       <c r="AG39">
         <f t="shared" ca="1" si="10"/>
-        <v>3.58</v>
+        <v>4.04</v>
       </c>
       <c r="AH39">
         <f ca="1">ROUND(6+RAND(), 2)</f>
-        <v>6.76</v>
+        <v>6.32</v>
       </c>
       <c r="AI39">
         <f t="shared" ca="1" si="1"/>
-        <v>12.53</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D40" s="2">
         <v>106.56213138823</v>
@@ -5187,14 +5197,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G40" s="14">
         <v>45394</v>
       </c>
       <c r="H40" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49</v>
+        <v>24.49</v>
       </c>
       <c r="I40" s="16">
         <f t="shared" ca="1" si="4"/>
@@ -5264,7 +5274,7 @@
         <v>90</v>
       </c>
       <c r="AE40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF40">
         <f t="shared" ca="1" si="0"/>
@@ -5272,26 +5282,26 @@
       </c>
       <c r="AG40">
         <f t="shared" ca="1" si="10"/>
-        <v>4.93</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="AH40">
         <f t="shared" ref="AH40:AH42" ca="1" si="11">ROUND(6+RAND(), 2)</f>
-        <v>6.66</v>
+        <v>6.27</v>
       </c>
       <c r="AI40">
         <f t="shared" ca="1" si="1"/>
-        <v>12.3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D41" s="2">
         <v>106.56213138823</v>
@@ -5300,14 +5310,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G41" s="14">
         <v>45395</v>
       </c>
       <c r="H41" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>26.49</v>
+        <v>24.49</v>
       </c>
       <c r="I41" s="16">
         <f t="shared" ca="1" si="4"/>
@@ -5377,7 +5387,7 @@
         <v>90</v>
       </c>
       <c r="AE41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF41">
         <f t="shared" ca="1" si="0"/>
@@ -5388,22 +5398,22 @@
       </c>
       <c r="AH41">
         <f t="shared" ca="1" si="11"/>
-        <v>6.53</v>
+        <v>6.36</v>
       </c>
       <c r="AI41">
         <f t="shared" ca="1" si="1"/>
-        <v>13.13</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D42" s="2">
         <v>106.56213138823</v>
@@ -5412,14 +5422,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G42" s="14">
         <v>45396</v>
       </c>
       <c r="H42" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49</v>
+        <v>26.49</v>
       </c>
       <c r="I42" s="16">
         <f t="shared" ca="1" si="4"/>
@@ -5489,7 +5499,7 @@
         <v>90</v>
       </c>
       <c r="AE42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF42">
         <f t="shared" ca="1" si="0"/>
@@ -5500,22 +5510,22 @@
       </c>
       <c r="AH42">
         <f t="shared" ca="1" si="11"/>
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="AI42">
         <f t="shared" ca="1" si="1"/>
-        <v>13.59</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D43" s="2">
         <v>106.56213138823</v>
@@ -5524,18 +5534,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G43" s="14">
         <v>45397</v>
       </c>
       <c r="H43" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>24.49</v>
+        <v>25.49</v>
       </c>
       <c r="I43" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>20.04</v>
+        <v>21.04</v>
       </c>
       <c r="J43" s="2">
         <v>3.93</v>
@@ -5601,7 +5611,7 @@
         <v>90</v>
       </c>
       <c r="AE43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF43">
         <f t="shared" ca="1" si="0"/>
@@ -5615,18 +5625,18 @@
       </c>
       <c r="AI43">
         <f t="shared" ca="1" si="1"/>
-        <v>12.78</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D44" s="2">
         <v>106.56213138823</v>
@@ -5635,7 +5645,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G44" s="14">
         <v>45398</v>
@@ -5710,7 +5720,7 @@
         <v>90</v>
       </c>
       <c r="AE44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF44">
         <f t="shared" ca="1" si="0"/>
@@ -5729,13 +5739,13 @@
     </row>
     <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D45" s="2">
         <v>106.56213138823</v>
@@ -5744,18 +5754,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G45" s="14">
         <v>45399</v>
       </c>
       <c r="H45" s="16">
         <f t="shared" ref="H45:H74" ca="1" si="12">$H$44+RANDBETWEEN(0,6)</f>
-        <v>29.75</v>
+        <v>27.75</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" ref="I45:I79" ca="1" si="13">$I$44+RANDBETWEEN(1,5)</f>
-        <v>21.19</v>
+        <v>23.19</v>
       </c>
       <c r="J45" s="2">
         <v>5.97</v>
@@ -5821,7 +5831,7 @@
         <v>90</v>
       </c>
       <c r="AE45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF45">
         <f t="shared" ca="1" si="0"/>
@@ -5835,18 +5845,18 @@
       </c>
       <c r="AI45">
         <f t="shared" ca="1" si="1"/>
-        <v>13.38</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="C46" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D46" s="2">
         <v>106.56213138823</v>
@@ -5855,18 +5865,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G46" s="14">
         <v>45400</v>
       </c>
       <c r="H46" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>26.75</v>
+        <v>31.75</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>22.19</v>
+        <v>21.19</v>
       </c>
       <c r="J46" s="2">
         <v>6.36</v>
@@ -5932,7 +5942,7 @@
         <v>90</v>
       </c>
       <c r="AE46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="0"/>
@@ -5946,18 +5956,18 @@
       </c>
       <c r="AI46">
         <f t="shared" ca="1" si="1"/>
-        <v>12.93</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D47" s="2">
         <v>106.56213138823</v>
@@ -5966,18 +5976,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G47" s="14">
         <v>45401</v>
       </c>
       <c r="H47" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>25.75</v>
+        <v>28.75</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>20.190000000000001</v>
+        <v>24.19</v>
       </c>
       <c r="J47" s="2">
         <v>14.24</v>
@@ -6043,7 +6053,7 @@
         <v>90</v>
       </c>
       <c r="AE47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="0"/>
@@ -6057,18 +6067,18 @@
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="1"/>
-        <v>12.32</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D48" s="2">
         <v>106.56213138823</v>
@@ -6077,18 +6087,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G48" s="14">
         <v>45402</v>
       </c>
       <c r="H48" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>29.75</v>
+        <v>27.75</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>21.19</v>
+        <v>23.19</v>
       </c>
       <c r="J48" s="2">
         <v>2.39</v>
@@ -6154,7 +6164,7 @@
         <v>90</v>
       </c>
       <c r="AE48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="0"/>
@@ -6168,18 +6178,18 @@
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="1"/>
-        <v>12.91</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D49" s="2">
         <v>106.56213138823</v>
@@ -6188,7 +6198,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G49" s="14">
         <v>45403</v>
@@ -6199,7 +6209,7 @@
       </c>
       <c r="I49" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>24.19</v>
+        <v>22.19</v>
       </c>
       <c r="J49" s="2">
         <v>14.53</v>
@@ -6265,7 +6275,7 @@
         <v>90</v>
       </c>
       <c r="AE49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF49">
         <f t="shared" ca="1" si="0"/>
@@ -6279,18 +6289,18 @@
       </c>
       <c r="AI49">
         <f t="shared" ca="1" si="1"/>
-        <v>13.58</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D50" s="2">
         <v>106.56213138823</v>
@@ -6299,18 +6309,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G50" s="14">
         <v>45404</v>
       </c>
       <c r="H50" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>30.75</v>
+        <v>31.75</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>21.19</v>
+        <v>22.19</v>
       </c>
       <c r="J50" s="2">
         <v>1.95</v>
@@ -6376,11 +6386,11 @@
         <v>90</v>
       </c>
       <c r="AE50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF50">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG50">
         <v>0</v>
@@ -6390,18 +6400,18 @@
       </c>
       <c r="AI50">
         <f t="shared" ca="1" si="1"/>
-        <v>12.88</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D51" s="2">
         <v>106.56213138823</v>
@@ -6410,14 +6420,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G51" s="14">
         <v>45405</v>
       </c>
       <c r="H51" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>30.75</v>
+        <v>27.75</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -6487,7 +6497,7 @@
         <v>90</v>
       </c>
       <c r="AE51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF51">
         <f t="shared" ca="1" si="0"/>
@@ -6501,18 +6511,18 @@
       </c>
       <c r="AI51">
         <f t="shared" ca="1" si="1"/>
-        <v>13.81</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D52" s="2">
         <v>106.56213138823</v>
@@ -6521,18 +6531,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G52" s="14">
         <v>45406</v>
       </c>
       <c r="H52" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>26.75</v>
+        <v>29.75</v>
       </c>
       <c r="I52" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>20.190000000000001</v>
+        <v>21.19</v>
       </c>
       <c r="J52" s="2">
         <v>3.86</v>
@@ -6598,7 +6608,7 @@
         <v>90</v>
       </c>
       <c r="AE52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF52">
         <f t="shared" ca="1" si="0"/>
@@ -6606,7 +6616,7 @@
       </c>
       <c r="AG52">
         <f ca="1">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>4.29</v>
+        <v>4.03</v>
       </c>
       <c r="AH52">
         <v>0</v>
@@ -6618,13 +6628,13 @@
     </row>
     <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D53" s="2">
         <v>106.56213138823</v>
@@ -6633,14 +6643,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G53" s="14">
         <v>45407</v>
       </c>
       <c r="H53" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>31.75</v>
+        <v>28.75</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -6710,7 +6720,7 @@
         <v>90</v>
       </c>
       <c r="AE53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF53">
         <f t="shared" ca="1" si="0"/>
@@ -6718,25 +6728,25 @@
       </c>
       <c r="AG53">
         <f t="shared" ref="AG53:AG55" ca="1" si="14">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>4.32</v>
+        <v>4.45</v>
       </c>
       <c r="AH53">
         <v>0</v>
       </c>
       <c r="AI53">
         <f t="shared" ca="1" si="1"/>
-        <v>13.68</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D54" s="2">
         <v>106.56213138823</v>
@@ -6745,18 +6755,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G54" s="14">
         <v>45408</v>
       </c>
       <c r="H54" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>31.75</v>
+        <v>25.75</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>21.19</v>
+        <v>23.19</v>
       </c>
       <c r="J54" s="2">
         <v>2.59</v>
@@ -6822,7 +6832,7 @@
         <v>90</v>
       </c>
       <c r="AE54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF54">
         <f t="shared" ca="1" si="0"/>
@@ -6830,25 +6840,25 @@
       </c>
       <c r="AG54">
         <f t="shared" ca="1" si="14"/>
-        <v>4.6900000000000004</v>
+        <v>4.29</v>
       </c>
       <c r="AH54">
         <v>0</v>
       </c>
       <c r="AI54">
         <f t="shared" ca="1" si="1"/>
-        <v>13.13</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D55" s="2">
         <v>106.56213138823</v>
@@ -6857,14 +6867,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G55" s="14">
         <v>45409</v>
       </c>
       <c r="H55" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>29.75</v>
+        <v>31.75</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -6934,7 +6944,7 @@
         <v>90</v>
       </c>
       <c r="AE55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF55">
         <f t="shared" ca="1" si="0"/>
@@ -6942,25 +6952,25 @@
       </c>
       <c r="AG55">
         <f t="shared" ca="1" si="14"/>
-        <v>4.3899999999999997</v>
+        <v>4.2</v>
       </c>
       <c r="AH55">
         <v>0</v>
       </c>
       <c r="AI55">
         <f t="shared" ca="1" si="1"/>
-        <v>12.97</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D56" s="2">
         <v>106.56213138823</v>
@@ -6969,7 +6979,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G56" s="14">
         <v>45410</v>
@@ -6980,7 +6990,7 @@
       </c>
       <c r="I56" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>22.19</v>
+        <v>24.19</v>
       </c>
       <c r="J56" s="2">
         <v>14.14</v>
@@ -7046,7 +7056,7 @@
         <v>90</v>
       </c>
       <c r="AE56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF56">
         <f t="shared" ca="1" si="0"/>
@@ -7060,18 +7070,18 @@
       </c>
       <c r="AI56">
         <f t="shared" ca="1" si="1"/>
-        <v>13.73</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D57" s="2">
         <v>106.56213138823</v>
@@ -7080,18 +7090,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G57" s="14">
         <v>45411</v>
       </c>
       <c r="H57" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>30.75</v>
+        <v>29.75</v>
       </c>
       <c r="I57" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>22.19</v>
+        <v>24.19</v>
       </c>
       <c r="J57" s="2">
         <v>11.1</v>
@@ -7157,7 +7167,7 @@
         <v>90</v>
       </c>
       <c r="AE57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF57">
         <f t="shared" ca="1" si="0"/>
@@ -7168,22 +7178,22 @@
       </c>
       <c r="AH57">
         <f ca="1">ROUND(6+RAND(), 2)</f>
-        <v>6.56</v>
+        <v>6.99</v>
       </c>
       <c r="AI57">
         <f t="shared" ca="1" si="1"/>
-        <v>13.33</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D58" s="2">
         <v>106.56213138823</v>
@@ -7192,18 +7202,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G58" s="14">
         <v>45412</v>
       </c>
       <c r="H58" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>25.75</v>
+        <v>30.75</v>
       </c>
       <c r="I58" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>21.19</v>
+        <v>22.19</v>
       </c>
       <c r="J58" s="2">
         <v>12.63</v>
@@ -7269,7 +7279,7 @@
         <v>90</v>
       </c>
       <c r="AE58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF58">
         <f t="shared" ca="1" si="0"/>
@@ -7280,22 +7290,22 @@
       </c>
       <c r="AH58">
         <f t="shared" ref="AH58:AH60" ca="1" si="15">ROUND(6+RAND(), 2)</f>
-        <v>6.93</v>
+        <v>6.24</v>
       </c>
       <c r="AI58">
         <f t="shared" ca="1" si="1"/>
-        <v>13.48</v>
+        <v>13.54</v>
       </c>
     </row>
     <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D59" s="2">
         <v>106.56213138823</v>
@@ -7304,18 +7314,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G59" s="14">
         <v>45413</v>
       </c>
       <c r="H59" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>31.75</v>
+        <v>26.75</v>
       </c>
       <c r="I59" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>24.19</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="J59" s="2">
         <v>1.73</v>
@@ -7381,7 +7391,7 @@
         <v>90</v>
       </c>
       <c r="AE59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF59">
         <f t="shared" ca="1" si="0"/>
@@ -7392,22 +7402,22 @@
       </c>
       <c r="AH59">
         <f t="shared" ca="1" si="15"/>
-        <v>6.25</v>
+        <v>6.23</v>
       </c>
       <c r="AI59">
         <f t="shared" ca="1" si="1"/>
-        <v>13.44</v>
+        <v>13.11</v>
       </c>
     </row>
     <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D60" s="2">
         <v>106.56213138823</v>
@@ -7416,18 +7426,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G60" s="14">
         <v>45414</v>
       </c>
       <c r="H60" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>30.75</v>
+        <v>27.75</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>23.19</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="J60" s="2">
         <v>9.27</v>
@@ -7493,7 +7503,7 @@
         <v>90</v>
       </c>
       <c r="AE60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF60">
         <f t="shared" ca="1" si="0"/>
@@ -7504,22 +7514,22 @@
       </c>
       <c r="AH60">
         <f t="shared" ca="1" si="15"/>
-        <v>6.99</v>
+        <v>7</v>
       </c>
       <c r="AI60">
         <f t="shared" ca="1" si="1"/>
-        <v>13.61</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="61" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D61" s="2">
         <v>106.56213138823</v>
@@ -7528,18 +7538,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G61" s="14">
         <v>45415</v>
       </c>
       <c r="H61" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>25.75</v>
+        <v>28.75</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>21.19</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="J61" s="2">
         <v>0.72</v>
@@ -7605,7 +7615,7 @@
         <v>90</v>
       </c>
       <c r="AE61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF61">
         <f t="shared" ca="1" si="0"/>
@@ -7619,18 +7629,18 @@
       </c>
       <c r="AI61">
         <f t="shared" ca="1" si="1"/>
-        <v>12.25</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D62" s="2">
         <v>106.56213138823</v>
@@ -7639,18 +7649,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G62" s="14">
         <v>45416</v>
       </c>
       <c r="H62" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>31.75</v>
+        <v>28.75</v>
       </c>
       <c r="I62" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>21.19</v>
+        <v>24.19</v>
       </c>
       <c r="J62" s="2">
         <v>11.9</v>
@@ -7716,7 +7726,7 @@
         <v>90</v>
       </c>
       <c r="AE62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF62">
         <f t="shared" ca="1" si="0"/>
@@ -7730,18 +7740,18 @@
       </c>
       <c r="AI62">
         <f t="shared" ca="1" si="1"/>
-        <v>13.19</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D63" s="2">
         <v>106.56213138823</v>
@@ -7750,18 +7760,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G63" s="14">
         <v>45417</v>
       </c>
       <c r="H63" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>27.75</v>
+        <v>30.75</v>
       </c>
       <c r="I63" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>23.19</v>
+        <v>21.19</v>
       </c>
       <c r="J63" s="2">
         <v>10.71</v>
@@ -7827,7 +7837,7 @@
         <v>90</v>
       </c>
       <c r="AE63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF63">
         <f t="shared" ca="1" si="0"/>
@@ -7841,18 +7851,18 @@
       </c>
       <c r="AI63">
         <f t="shared" ca="1" si="1"/>
-        <v>12.75</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="C64" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D64" s="2">
         <v>106.56213138823</v>
@@ -7861,14 +7871,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G64" s="14">
         <v>45418</v>
       </c>
       <c r="H64" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>31.75</v>
+        <v>29.75</v>
       </c>
       <c r="I64" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -7938,7 +7948,7 @@
         <v>90</v>
       </c>
       <c r="AE64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF64">
         <f t="shared" ca="1" si="0"/>
@@ -7952,18 +7962,18 @@
       </c>
       <c r="AI64">
         <f t="shared" ca="1" si="1"/>
-        <v>12.54</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D65" s="2">
         <v>106.56213138823</v>
@@ -7972,7 +7982,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G65" s="14">
         <v>45419</v>
@@ -7983,7 +7993,7 @@
       </c>
       <c r="I65" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>20.190000000000001</v>
+        <v>23.19</v>
       </c>
       <c r="J65" s="2">
         <v>0.37</v>
@@ -8049,7 +8059,7 @@
         <v>90</v>
       </c>
       <c r="AE65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF65">
         <f t="shared" ca="1" si="0"/>
@@ -8063,18 +8073,18 @@
       </c>
       <c r="AI65">
         <f t="shared" ca="1" si="1"/>
-        <v>12.7</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="C66" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D66" s="2">
         <v>106.56213138823</v>
@@ -8083,14 +8093,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G66" s="14">
         <v>45420</v>
       </c>
       <c r="H66" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>29.75</v>
+        <v>26.75</v>
       </c>
       <c r="I66" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -8160,7 +8170,7 @@
         <v>90</v>
       </c>
       <c r="AE66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF66">
         <f t="shared" ca="1" si="0"/>
@@ -8174,18 +8184,18 @@
       </c>
       <c r="AI66">
         <f t="shared" ca="1" si="1"/>
-        <v>12.85</v>
+        <v>12.87</v>
       </c>
     </row>
     <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D67" s="2">
         <v>106.56213138823</v>
@@ -8194,18 +8204,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G67" s="14">
         <v>45421</v>
       </c>
       <c r="H67" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>28.75</v>
+        <v>31.75</v>
       </c>
       <c r="I67" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>23.19</v>
+        <v>21.19</v>
       </c>
       <c r="J67" s="2">
         <v>4.5599999999999996</v>
@@ -8271,7 +8281,7 @@
         <v>90</v>
       </c>
       <c r="AE67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF67">
         <f t="shared" ref="AF67:AF117" ca="1" si="16">IF(RAND() &lt; 0.95, 1, 0)</f>
@@ -8285,18 +8295,18 @@
       </c>
       <c r="AI67">
         <f t="shared" ref="AI67:AI117" ca="1" si="17">ROUND(12+RAND()+RAND(), 2)</f>
-        <v>12.88</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="C68" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D68" s="2">
         <v>106.56213138823</v>
@@ -8305,18 +8315,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G68" s="14">
         <v>45422</v>
       </c>
       <c r="H68" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>28.75</v>
+        <v>25.75</v>
       </c>
       <c r="I68" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>23.19</v>
+        <v>21.19</v>
       </c>
       <c r="J68" s="2">
         <v>2.4</v>
@@ -8382,7 +8392,7 @@
         <v>90</v>
       </c>
       <c r="AE68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF68">
         <f t="shared" ca="1" si="16"/>
@@ -8390,25 +8400,25 @@
       </c>
       <c r="AG68">
         <f ca="1">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>4.3899999999999997</v>
+        <v>3.51</v>
       </c>
       <c r="AH68">
         <v>0</v>
       </c>
       <c r="AI68">
         <f t="shared" ca="1" si="17"/>
-        <v>12.39</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D69" s="2">
         <v>106.56213138823</v>
@@ -8417,18 +8427,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G69" s="14">
         <v>45423</v>
       </c>
       <c r="H69" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>28.75</v>
+        <v>29.75</v>
       </c>
       <c r="I69" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>21.19</v>
+        <v>22.19</v>
       </c>
       <c r="J69" s="2">
         <v>14.85</v>
@@ -8494,7 +8504,7 @@
         <v>90</v>
       </c>
       <c r="AE69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF69">
         <f t="shared" ca="1" si="16"/>
@@ -8502,25 +8512,25 @@
       </c>
       <c r="AG69">
         <f t="shared" ref="AG69:AG71" ca="1" si="18">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>4.55</v>
+        <v>3.99</v>
       </c>
       <c r="AH69">
         <v>0</v>
       </c>
       <c r="AI69">
         <f t="shared" ca="1" si="17"/>
-        <v>13.24</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="C70" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D70" s="2">
         <v>106.56213138823</v>
@@ -8529,18 +8539,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G70" s="14">
         <v>45424</v>
       </c>
       <c r="H70" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>29.75</v>
+        <v>30.75</v>
       </c>
       <c r="I70" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>20.190000000000001</v>
+        <v>21.19</v>
       </c>
       <c r="J70" s="2">
         <v>0.2</v>
@@ -8606,7 +8616,7 @@
         <v>90</v>
       </c>
       <c r="AE70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF70">
         <f t="shared" ca="1" si="16"/>
@@ -8614,25 +8624,25 @@
       </c>
       <c r="AG70">
         <f t="shared" ca="1" si="18"/>
-        <v>3.78</v>
+        <v>4.13</v>
       </c>
       <c r="AH70">
         <v>0</v>
       </c>
       <c r="AI70">
         <f t="shared" ca="1" si="17"/>
-        <v>13.07</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D71" s="2">
         <v>106.56213138823</v>
@@ -8641,7 +8651,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G71" s="14">
         <v>45425</v>
@@ -8652,7 +8662,7 @@
       </c>
       <c r="I71" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>22.19</v>
+        <v>23.19</v>
       </c>
       <c r="J71" s="2">
         <v>0.62</v>
@@ -8718,7 +8728,7 @@
         <v>90</v>
       </c>
       <c r="AE71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF71">
         <f t="shared" ca="1" si="16"/>
@@ -8726,25 +8736,25 @@
       </c>
       <c r="AG71">
         <f t="shared" ca="1" si="18"/>
-        <v>3.39</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="AH71">
         <v>0</v>
       </c>
       <c r="AI71">
         <f t="shared" ca="1" si="17"/>
-        <v>13.78</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D72" s="2">
         <v>106.56213138823</v>
@@ -8753,14 +8763,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G72" s="14">
         <v>45426</v>
       </c>
       <c r="H72" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>25.75</v>
+        <v>30.75</v>
       </c>
       <c r="I72" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -8830,7 +8840,7 @@
         <v>90</v>
       </c>
       <c r="AE72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF72">
         <f t="shared" ca="1" si="16"/>
@@ -8844,18 +8854,18 @@
       </c>
       <c r="AI72">
         <f t="shared" ca="1" si="17"/>
-        <v>13.38</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="73" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D73" s="2">
         <v>106.56213138823</v>
@@ -8864,18 +8874,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G73" s="14">
         <v>45427</v>
       </c>
       <c r="H73" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>27.75</v>
+        <v>29.75</v>
       </c>
       <c r="I73" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>24.19</v>
+        <v>22.19</v>
       </c>
       <c r="J73" s="2">
         <v>12.38</v>
@@ -8941,7 +8951,7 @@
         <v>90</v>
       </c>
       <c r="AE73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF73">
         <f t="shared" ca="1" si="16"/>
@@ -8955,18 +8965,18 @@
       </c>
       <c r="AI73">
         <f t="shared" ca="1" si="17"/>
-        <v>12.94</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="C74" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D74" s="2">
         <v>106.56213138823</v>
@@ -8975,7 +8985,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G74" s="14">
         <v>45428</v>
@@ -9052,7 +9062,7 @@
         <v>90</v>
       </c>
       <c r="AE74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF74">
         <f t="shared" ca="1" si="16"/>
@@ -9063,22 +9073,22 @@
       </c>
       <c r="AH74">
         <f ca="1">ROUND(6+RAND(), 2)</f>
-        <v>6</v>
+        <v>6.09</v>
       </c>
       <c r="AI74">
         <f t="shared" ca="1" si="17"/>
-        <v>13.07</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="75" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D75" s="2">
         <v>106.56213138823</v>
@@ -9087,18 +9097,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G75" s="14">
         <v>45429</v>
       </c>
       <c r="H75" s="16">
         <f ca="1">$H$44+RANDBETWEEN(1,6)</f>
-        <v>26.75</v>
+        <v>28.75</v>
       </c>
       <c r="I75" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>23.19</v>
+        <v>21.19</v>
       </c>
       <c r="J75" s="2">
         <v>11.32</v>
@@ -9164,7 +9174,7 @@
         <v>90</v>
       </c>
       <c r="AE75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF75">
         <f t="shared" ca="1" si="16"/>
@@ -9175,22 +9185,22 @@
       </c>
       <c r="AH75">
         <f t="shared" ref="AH75:AH77" ca="1" si="19">ROUND(6+RAND(), 2)</f>
-        <v>6.92</v>
+        <v>6.64</v>
       </c>
       <c r="AI75">
         <f t="shared" ca="1" si="17"/>
-        <v>13.49</v>
+        <v>13.17</v>
       </c>
     </row>
     <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="C76" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D76" s="2">
         <v>106.56213138823</v>
@@ -9199,18 +9209,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G76" s="14">
         <v>45430</v>
       </c>
       <c r="H76" s="16">
         <f ca="1">$H$44+RANDBETWEEN(0,6)</f>
-        <v>31.75</v>
+        <v>29.75</v>
       </c>
       <c r="I76" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>23.19</v>
+        <v>22.19</v>
       </c>
       <c r="J76" s="2">
         <v>0.23</v>
@@ -9276,7 +9286,7 @@
         <v>90</v>
       </c>
       <c r="AE76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF76">
         <f t="shared" ca="1" si="16"/>
@@ -9287,22 +9297,22 @@
       </c>
       <c r="AH76">
         <f t="shared" ca="1" si="19"/>
-        <v>6.1</v>
+        <v>6.31</v>
       </c>
       <c r="AI76">
         <f t="shared" ca="1" si="17"/>
-        <v>13.05</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="C77" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D77" s="2">
         <v>106.56213138823</v>
@@ -9311,7 +9321,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G77" s="14">
         <v>45431</v>
@@ -9322,7 +9332,7 @@
       </c>
       <c r="I77" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>22.19</v>
+        <v>23.19</v>
       </c>
       <c r="J77" s="2">
         <v>12.31</v>
@@ -9388,33 +9398,33 @@
         <v>90</v>
       </c>
       <c r="AE77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF77">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG77">
         <v>0</v>
       </c>
       <c r="AH77">
         <f t="shared" ca="1" si="19"/>
-        <v>6.11</v>
+        <v>6.59</v>
       </c>
       <c r="AI77">
         <f t="shared" ca="1" si="17"/>
-        <v>13.22</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="C78" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D78" s="2">
         <v>106.56213138823</v>
@@ -9423,7 +9433,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G78" s="14">
         <v>45432</v>
@@ -9434,7 +9444,7 @@
       </c>
       <c r="I78" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>22.19</v>
+        <v>21.19</v>
       </c>
       <c r="J78" s="2">
         <v>3.83</v>
@@ -9500,7 +9510,7 @@
         <v>90</v>
       </c>
       <c r="AE78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF78">
         <f t="shared" ca="1" si="16"/>
@@ -9514,18 +9524,18 @@
       </c>
       <c r="AI78">
         <f t="shared" ca="1" si="17"/>
-        <v>12.26</v>
+        <v>13.41</v>
       </c>
     </row>
     <row r="79" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="C79" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D79" s="2">
         <v>106.56213138823</v>
@@ -9534,7 +9544,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G79" s="14">
         <v>45433</v>
@@ -9544,7 +9554,7 @@
       </c>
       <c r="I79" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>20.190000000000001</v>
+        <v>24.19</v>
       </c>
       <c r="J79" s="2">
         <v>0.52</v>
@@ -9610,7 +9620,7 @@
         <v>90</v>
       </c>
       <c r="AE79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF79">
         <f t="shared" ca="1" si="16"/>
@@ -9624,18 +9634,18 @@
       </c>
       <c r="AI79">
         <f t="shared" ca="1" si="17"/>
-        <v>13.88</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="C80" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D80" s="2">
         <v>106.56213138823</v>
@@ -9644,7 +9654,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G80" s="14">
         <v>45434</v>
@@ -9720,7 +9730,7 @@
         <v>90</v>
       </c>
       <c r="AE80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF80">
         <f t="shared" ca="1" si="16"/>
@@ -9734,18 +9744,18 @@
       </c>
       <c r="AI80">
         <f t="shared" ca="1" si="17"/>
-        <v>13.32</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="C81" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D81" s="2">
         <v>106.56213138823</v>
@@ -9754,18 +9764,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G81" s="14">
         <v>45435</v>
       </c>
       <c r="H81" s="16">
         <f t="shared" ref="H81:H117" ca="1" si="20">$H$79+RANDBETWEEN(1,5)</f>
-        <v>34.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="I81" s="2">
         <f ca="1">$I$80+RANDBETWEEN(2,4)</f>
-        <v>29.65</v>
+        <v>27.65</v>
       </c>
       <c r="J81" s="2">
         <v>0.8</v>
@@ -9831,7 +9841,7 @@
         <v>90</v>
       </c>
       <c r="AE81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF81">
         <f t="shared" ca="1" si="16"/>
@@ -9845,18 +9855,18 @@
       </c>
       <c r="AI81">
         <f t="shared" ca="1" si="17"/>
-        <v>12.76</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="C82" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D82" s="2">
         <v>106.56213138823</v>
@@ -9865,18 +9875,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G82" s="14">
         <v>45436</v>
       </c>
       <c r="H82" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>34.700000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I82" s="2">
         <f t="shared" ref="I82:I117" ca="1" si="21">$I$80+RANDBETWEEN(2,4)</f>
-        <v>28.65</v>
+        <v>29.65</v>
       </c>
       <c r="J82" s="2">
         <v>12.65</v>
@@ -9942,7 +9952,7 @@
         <v>90</v>
       </c>
       <c r="AE82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF82">
         <f t="shared" ca="1" si="16"/>
@@ -9956,18 +9966,18 @@
       </c>
       <c r="AI82">
         <f t="shared" ca="1" si="17"/>
-        <v>13.07</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="C83" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D83" s="2">
         <v>106.56213138823</v>
@@ -9976,14 +9986,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G83" s="14">
         <v>45437</v>
       </c>
       <c r="H83" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>36.700000000000003</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="I83" s="2">
         <f t="shared" ca="1" si="21"/>
@@ -10053,11 +10063,11 @@
         <v>90</v>
       </c>
       <c r="AE83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF83">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG83">
         <v>0</v>
@@ -10067,18 +10077,18 @@
       </c>
       <c r="AI83">
         <f t="shared" ca="1" si="17"/>
-        <v>13.07</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="84" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D84" s="2">
         <v>106.56213138823</v>
@@ -10087,18 +10097,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G84" s="14">
         <v>45438</v>
       </c>
       <c r="H84" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>37.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="I84" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>29.65</v>
       </c>
       <c r="J84" s="2">
         <v>0.82</v>
@@ -10164,7 +10174,7 @@
         <v>90</v>
       </c>
       <c r="AE84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF84">
         <f t="shared" ca="1" si="16"/>
@@ -10178,18 +10188,18 @@
       </c>
       <c r="AI84">
         <f t="shared" ca="1" si="17"/>
-        <v>13.76</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="85" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="C85" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D85" s="2">
         <v>106.56213138823</v>
@@ -10198,18 +10208,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G85" s="14">
         <v>45439</v>
       </c>
       <c r="H85" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>38.700000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I85" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>28.65</v>
       </c>
       <c r="J85" s="2">
         <v>4.9000000000000004</v>
@@ -10275,7 +10285,7 @@
         <v>90</v>
       </c>
       <c r="AE85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF85">
         <f t="shared" ca="1" si="16"/>
@@ -10294,13 +10304,13 @@
     </row>
     <row r="86" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="C86" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D86" s="2">
         <v>106.56213138823</v>
@@ -10309,18 +10319,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G86" s="14">
         <v>45440</v>
       </c>
       <c r="H86" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>36.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="I86" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>28.65</v>
       </c>
       <c r="J86" s="2">
         <v>7.63</v>
@@ -10386,7 +10396,7 @@
         <v>90</v>
       </c>
       <c r="AE86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF86">
         <f t="shared" ca="1" si="16"/>
@@ -10400,18 +10410,18 @@
       </c>
       <c r="AI86">
         <f t="shared" ca="1" si="17"/>
-        <v>12.67</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="C87" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D87" s="2">
         <v>106.56213138823</v>
@@ -10420,7 +10430,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G87" s="14">
         <v>45441</v>
@@ -10431,7 +10441,7 @@
       </c>
       <c r="I87" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>29.65</v>
       </c>
       <c r="J87" s="2">
         <v>0.49</v>
@@ -10497,7 +10507,7 @@
         <v>90</v>
       </c>
       <c r="AE87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF87">
         <f t="shared" ca="1" si="16"/>
@@ -10505,25 +10515,25 @@
       </c>
       <c r="AG87">
         <f ca="1">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>4.26</v>
+        <v>3.63</v>
       </c>
       <c r="AH87">
         <v>0</v>
       </c>
       <c r="AI87">
         <f t="shared" ca="1" si="17"/>
-        <v>13.21</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="88" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="C88" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D88" s="2">
         <v>106.56213138823</v>
@@ -10532,7 +10542,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G88" s="14">
         <v>45444</v>
@@ -10609,7 +10619,7 @@
         <v>90</v>
       </c>
       <c r="AE88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF88">
         <f t="shared" ca="1" si="16"/>
@@ -10617,25 +10627,25 @@
       </c>
       <c r="AG88">
         <f ca="1">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>3.26</v>
+        <v>4.51</v>
       </c>
       <c r="AH88">
         <v>0</v>
       </c>
       <c r="AI88">
         <f t="shared" ca="1" si="17"/>
-        <v>13.19</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="89" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="C89" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D89" s="2">
         <v>106.56213138823</v>
@@ -10644,7 +10654,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G89" s="14">
         <v>45445</v>
@@ -10721,7 +10731,7 @@
         <v>90</v>
       </c>
       <c r="AE89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF89">
         <f t="shared" ca="1" si="16"/>
@@ -10729,25 +10739,25 @@
       </c>
       <c r="AG89">
         <f t="shared" ref="AG89:AG91" ca="1" si="22">ROUND(3 + RAND() + RAND(), 2)</f>
-        <v>4.4800000000000004</v>
+        <v>3.69</v>
       </c>
       <c r="AH89">
         <v>0</v>
       </c>
       <c r="AI89">
         <f t="shared" ca="1" si="17"/>
-        <v>13.3</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="90" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="C90" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D90" s="2">
         <v>106.56213138823</v>
@@ -10756,7 +10766,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G90" s="14">
         <v>45446</v>
@@ -10833,33 +10843,33 @@
         <v>90</v>
       </c>
       <c r="AE90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF90">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG90">
         <f t="shared" ca="1" si="22"/>
-        <v>4.51</v>
+        <v>4.67</v>
       </c>
       <c r="AH90">
         <v>0</v>
       </c>
       <c r="AI90">
         <f t="shared" ca="1" si="17"/>
-        <v>13.41</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="C91" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D91" s="2">
         <v>106.56213138823</v>
@@ -10868,14 +10878,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G91" s="14">
         <v>45447</v>
       </c>
       <c r="H91" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>34.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="I91" s="2">
         <f t="shared" ca="1" si="21"/>
@@ -10945,33 +10955,33 @@
         <v>90</v>
       </c>
       <c r="AE91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF91">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG91">
         <f t="shared" ca="1" si="22"/>
-        <v>4.22</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="AH91">
         <v>0</v>
       </c>
       <c r="AI91">
         <f t="shared" ca="1" si="17"/>
-        <v>13.29</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="92" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="C92" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D92" s="2">
         <v>106.56213138823</v>
@@ -10980,7 +10990,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G92" s="14">
         <v>45448</v>
@@ -10991,7 +11001,7 @@
       </c>
       <c r="I92" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>29.65</v>
       </c>
       <c r="J92" s="2">
         <v>10.95</v>
@@ -11057,7 +11067,7 @@
         <v>90</v>
       </c>
       <c r="AE92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF92">
         <f t="shared" ca="1" si="16"/>
@@ -11071,18 +11081,18 @@
       </c>
       <c r="AI92">
         <f t="shared" ca="1" si="17"/>
-        <v>13.34</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="93" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="C93" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D93" s="2">
         <v>106.56213138823</v>
@@ -11091,18 +11101,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G93" s="14">
         <v>45449</v>
       </c>
       <c r="H93" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>34.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="I93" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>29.65</v>
+        <v>27.65</v>
       </c>
       <c r="J93" s="2">
         <v>4.38</v>
@@ -11168,7 +11178,7 @@
         <v>90</v>
       </c>
       <c r="AE93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF93">
         <f t="shared" ca="1" si="16"/>
@@ -11182,18 +11192,18 @@
       </c>
       <c r="AI93">
         <f t="shared" ca="1" si="17"/>
-        <v>13.76</v>
+        <v>13.39</v>
       </c>
     </row>
     <row r="94" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="C94" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D94" s="2">
         <v>106.56213138823</v>
@@ -11202,18 +11212,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G94" s="14">
         <v>45450</v>
       </c>
       <c r="H94" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>36.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="I94" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>29.65</v>
+        <v>27.65</v>
       </c>
       <c r="J94" s="2">
         <v>12.82</v>
@@ -11279,7 +11289,7 @@
         <v>90</v>
       </c>
       <c r="AE94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF94">
         <f t="shared" ca="1" si="16"/>
@@ -11293,18 +11303,18 @@
       </c>
       <c r="AI94">
         <f t="shared" ca="1" si="17"/>
-        <v>12.72</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="C95" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D95" s="2">
         <v>106.56213138823</v>
@@ -11313,18 +11323,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G95" s="14">
         <v>45451</v>
       </c>
       <c r="H95" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>38.700000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I95" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>29.65</v>
+        <v>28.65</v>
       </c>
       <c r="J95" s="2">
         <v>1.25</v>
@@ -11390,7 +11400,7 @@
         <v>90</v>
       </c>
       <c r="AE95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF95">
         <f t="shared" ca="1" si="16"/>
@@ -11404,18 +11414,18 @@
       </c>
       <c r="AI95">
         <f t="shared" ca="1" si="17"/>
-        <v>13.05</v>
+        <v>13.37</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="C96" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D96" s="2">
         <v>106.56213138823</v>
@@ -11424,18 +11434,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G96" s="14">
         <v>45452</v>
       </c>
       <c r="H96" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>38.700000000000003</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="I96" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>28.65</v>
+        <v>27.65</v>
       </c>
       <c r="J96" s="2">
         <v>2.08</v>
@@ -11501,7 +11511,7 @@
         <v>90</v>
       </c>
       <c r="AE96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF96">
         <f t="shared" ca="1" si="16"/>
@@ -11516,18 +11526,18 @@
       </c>
       <c r="AI96">
         <f t="shared" ca="1" si="17"/>
-        <v>12.74</v>
+        <v>13.22</v>
       </c>
     </row>
     <row r="97" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="C97" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D97" s="2">
         <v>106.56213138823</v>
@@ -11536,18 +11546,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G97" s="14">
         <v>45453</v>
       </c>
       <c r="H97" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>35.700000000000003</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="I97" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>28.65</v>
       </c>
       <c r="J97" s="2">
         <v>10.72</v>
@@ -11613,7 +11623,7 @@
         <v>90</v>
       </c>
       <c r="AE97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF97">
         <f t="shared" ca="1" si="16"/>
@@ -11624,22 +11634,22 @@
       </c>
       <c r="AH97">
         <f t="shared" ref="AH97:AH99" ca="1" si="23">ROUND(6+RAND(), 2)</f>
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AI97">
         <f t="shared" ca="1" si="17"/>
-        <v>12.46</v>
+        <v>13.22</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="C98" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D98" s="2">
         <v>106.56213138823</v>
@@ -11648,7 +11658,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G98" s="14">
         <v>45454</v>
@@ -11659,7 +11669,7 @@
       </c>
       <c r="I98" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>29.65</v>
+        <v>27.65</v>
       </c>
       <c r="J98" s="2">
         <v>11.52</v>
@@ -11725,7 +11735,7 @@
         <v>90</v>
       </c>
       <c r="AE98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF98">
         <f t="shared" ca="1" si="16"/>
@@ -11736,22 +11746,22 @@
       </c>
       <c r="AH98">
         <f t="shared" ca="1" si="23"/>
-        <v>6.6</v>
+        <v>6.71</v>
       </c>
       <c r="AI98">
         <f t="shared" ca="1" si="17"/>
-        <v>13.09</v>
+        <v>13.11</v>
       </c>
     </row>
     <row r="99" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="C99" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D99" s="2">
         <v>106.56213138823</v>
@@ -11760,18 +11770,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G99" s="14">
         <v>45455</v>
       </c>
       <c r="H99" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>34.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="I99" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>28.65</v>
+        <v>27.65</v>
       </c>
       <c r="J99" s="2">
         <v>3.85</v>
@@ -11837,7 +11847,7 @@
         <v>90</v>
       </c>
       <c r="AE99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF99">
         <f t="shared" ca="1" si="16"/>
@@ -11848,22 +11858,22 @@
       </c>
       <c r="AH99">
         <f t="shared" ca="1" si="23"/>
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AI99">
         <f t="shared" ca="1" si="17"/>
-        <v>13.32</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="100" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="C100" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D100" s="2">
         <v>106.56213138823</v>
@@ -11872,14 +11882,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G100" s="14">
         <v>45456</v>
       </c>
       <c r="H100" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>34.700000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I100" s="2">
         <f t="shared" ca="1" si="21"/>
@@ -11949,7 +11959,7 @@
         <v>90</v>
       </c>
       <c r="AE100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF100">
         <f t="shared" ca="1" si="16"/>
@@ -11963,18 +11973,18 @@
       </c>
       <c r="AI100">
         <f t="shared" ca="1" si="17"/>
-        <v>12.91</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="C101" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D101" s="2">
         <v>106.56213138823</v>
@@ -11983,7 +11993,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G101" s="14">
         <v>45457</v>
@@ -11994,7 +12004,7 @@
       </c>
       <c r="I101" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>29.65</v>
+        <v>27.65</v>
       </c>
       <c r="J101" s="2">
         <v>4.6399999999999997</v>
@@ -12060,7 +12070,7 @@
         <v>90</v>
       </c>
       <c r="AE101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF101">
         <f t="shared" ca="1" si="16"/>
@@ -12074,18 +12084,18 @@
       </c>
       <c r="AI101">
         <f t="shared" ca="1" si="17"/>
-        <v>13.49</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="C102" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D102" s="2">
         <v>106.56213138823</v>
@@ -12094,7 +12104,7 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G102" s="14">
         <v>45458</v>
@@ -12105,7 +12115,7 @@
       </c>
       <c r="I102" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>29.65</v>
+        <v>28.65</v>
       </c>
       <c r="J102" s="2">
         <v>7.64</v>
@@ -12171,7 +12181,7 @@
         <v>90</v>
       </c>
       <c r="AE102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF102">
         <f t="shared" ca="1" si="16"/>
@@ -12185,18 +12195,18 @@
       </c>
       <c r="AI102">
         <f t="shared" ca="1" si="17"/>
-        <v>12.56</v>
+        <v>13.54</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B103" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="C103" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D103" s="2">
         <v>106.56213138823</v>
@@ -12205,18 +12215,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G103" s="14">
         <v>45459</v>
       </c>
       <c r="H103" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>38.700000000000003</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I103" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>28.65</v>
+        <v>29.65</v>
       </c>
       <c r="J103" s="2">
         <v>9.48</v>
@@ -12282,7 +12292,7 @@
         <v>90</v>
       </c>
       <c r="AE103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF103">
         <f t="shared" ca="1" si="16"/>
@@ -12296,18 +12306,18 @@
       </c>
       <c r="AI103">
         <f t="shared" ca="1" si="17"/>
-        <v>13.75</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="C104" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D104" s="2">
         <v>106.56213138823</v>
@@ -12316,18 +12326,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G104" s="14">
         <v>45460</v>
       </c>
       <c r="H104" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>35.700000000000003</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I104" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>29.65</v>
       </c>
       <c r="J104" s="2">
         <v>6.65</v>
@@ -12393,7 +12403,7 @@
         <v>90</v>
       </c>
       <c r="AE104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF104">
         <f t="shared" ca="1" si="16"/>
@@ -12407,18 +12417,18 @@
       </c>
       <c r="AI104">
         <f t="shared" ca="1" si="17"/>
-        <v>13.57</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="105" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B105" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="C105" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D105" s="2">
         <v>106.56213138823</v>
@@ -12427,18 +12437,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G105" s="14">
         <v>45461</v>
       </c>
       <c r="H105" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>36.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="I105" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>28.65</v>
       </c>
       <c r="J105" s="2">
         <v>11.04</v>
@@ -12504,7 +12514,7 @@
         <v>90</v>
       </c>
       <c r="AE105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF105">
         <f t="shared" ca="1" si="16"/>
@@ -12518,18 +12528,18 @@
       </c>
       <c r="AI105">
         <f t="shared" ca="1" si="17"/>
-        <v>13.65</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="C106" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D106" s="2">
         <v>106.56213138823</v>
@@ -12538,18 +12548,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G106" s="14">
         <v>45462</v>
       </c>
       <c r="H106" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>38.700000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I106" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>29.65</v>
       </c>
       <c r="J106" s="2">
         <v>14.45</v>
@@ -12615,7 +12625,7 @@
         <v>90</v>
       </c>
       <c r="AE106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF106">
         <f t="shared" ca="1" si="16"/>
@@ -12629,18 +12639,18 @@
       </c>
       <c r="AI106">
         <f t="shared" ca="1" si="17"/>
-        <v>13.59</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="107" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B107" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="C107" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D107" s="2">
         <v>106.56213138823</v>
@@ -12649,18 +12659,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G107" s="14">
         <v>45463</v>
       </c>
       <c r="H107" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>37.700000000000003</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="I107" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>28.65</v>
       </c>
       <c r="J107" s="2">
         <v>8.86</v>
@@ -12726,7 +12736,7 @@
         <v>90</v>
       </c>
       <c r="AE107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF107">
         <f t="shared" ca="1" si="16"/>
@@ -12740,18 +12750,18 @@
       </c>
       <c r="AI107">
         <f t="shared" ca="1" si="17"/>
-        <v>13.12</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="108" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B108" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="C108" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D108" s="2">
         <v>106.56213138823</v>
@@ -12760,14 +12770,14 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G108" s="14">
         <v>45464</v>
       </c>
       <c r="H108" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>36.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="I108" s="2">
         <f t="shared" ca="1" si="21"/>
@@ -12837,7 +12847,7 @@
         <v>90</v>
       </c>
       <c r="AE108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF108">
         <f t="shared" ca="1" si="16"/>
@@ -12851,18 +12861,18 @@
       </c>
       <c r="AI108">
         <f t="shared" ca="1" si="17"/>
-        <v>12.4</v>
+        <v>12.77</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B109" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="C109" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D109" s="2">
         <v>106.56213138823</v>
@@ -12871,18 +12881,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G109" s="14">
         <v>45465</v>
       </c>
       <c r="H109" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>36.700000000000003</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="I109" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>28.65</v>
       </c>
       <c r="J109" s="2">
         <v>14.62</v>
@@ -12948,7 +12958,7 @@
         <v>90</v>
       </c>
       <c r="AE109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF109">
         <f t="shared" ca="1" si="16"/>
@@ -12962,18 +12972,18 @@
       </c>
       <c r="AI109">
         <f t="shared" ca="1" si="17"/>
-        <v>12.93</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="110" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B110" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="C110" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D110" s="2">
         <v>106.56213138823</v>
@@ -12982,18 +12992,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G110" s="14">
         <v>45466</v>
       </c>
       <c r="H110" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>34.700000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I110" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>29.65</v>
+        <v>27.65</v>
       </c>
       <c r="J110" s="2">
         <v>5.15</v>
@@ -13059,7 +13069,7 @@
         <v>90</v>
       </c>
       <c r="AE110" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF110">
         <f t="shared" ca="1" si="16"/>
@@ -13073,18 +13083,18 @@
       </c>
       <c r="AI110">
         <f t="shared" ca="1" si="17"/>
-        <v>13.25</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B111" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="C111" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D111" s="2">
         <v>106.56213138823</v>
@@ -13093,18 +13103,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G111" s="14">
         <v>45467</v>
       </c>
       <c r="H111" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>35.700000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I111" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>29.65</v>
       </c>
       <c r="J111" s="2">
         <v>6.83</v>
@@ -13170,7 +13180,7 @@
         <v>90</v>
       </c>
       <c r="AE111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF111">
         <f t="shared" ca="1" si="16"/>
@@ -13181,22 +13191,22 @@
       </c>
       <c r="AH111">
         <f ca="1">ROUND(6+RAND(), 2)</f>
-        <v>6.54</v>
+        <v>6.04</v>
       </c>
       <c r="AI111">
         <f t="shared" ca="1" si="17"/>
-        <v>13.49</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="112" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B112" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="C112" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D112" s="2">
         <v>106.56213138823</v>
@@ -13205,18 +13215,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G112" s="14">
         <v>45468</v>
       </c>
       <c r="H112" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>38.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="I112" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>28.65</v>
+        <v>27.65</v>
       </c>
       <c r="J112" s="2">
         <v>9.65</v>
@@ -13282,7 +13292,7 @@
         <v>90</v>
       </c>
       <c r="AE112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF112">
         <f t="shared" ca="1" si="16"/>
@@ -13293,22 +13303,22 @@
       </c>
       <c r="AH112">
         <f t="shared" ref="AH112:AH114" ca="1" si="24">ROUND(6+RAND(), 2)</f>
-        <v>6.55</v>
+        <v>6.16</v>
       </c>
       <c r="AI112">
         <f t="shared" ca="1" si="17"/>
-        <v>13.19</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="113" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B113" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="C113" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D113" s="2">
         <v>106.56213138823</v>
@@ -13317,18 +13327,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G113" s="14">
         <v>45469</v>
       </c>
       <c r="H113" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>37.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="I113" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>28.65</v>
+        <v>27.65</v>
       </c>
       <c r="J113" s="2">
         <v>2.29</v>
@@ -13394,7 +13404,7 @@
         <v>90</v>
       </c>
       <c r="AE113" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF113">
         <f t="shared" ca="1" si="16"/>
@@ -13409,18 +13419,18 @@
       </c>
       <c r="AI113">
         <f t="shared" ca="1" si="17"/>
-        <v>12.52</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="114" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B114" s="15" t="s">
+      <c r="C114" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D114" s="2">
         <v>106.56213138823</v>
@@ -13429,18 +13439,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G114" s="14">
         <v>45470</v>
       </c>
       <c r="H114" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>36.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="I114" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>29.65</v>
+        <v>27.65</v>
       </c>
       <c r="J114" s="2">
         <v>7.01</v>
@@ -13506,7 +13516,7 @@
         <v>90</v>
       </c>
       <c r="AE114" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF114">
         <f t="shared" ca="1" si="16"/>
@@ -13517,22 +13527,22 @@
       </c>
       <c r="AH114">
         <f t="shared" ca="1" si="24"/>
-        <v>6.66</v>
+        <v>6.87</v>
       </c>
       <c r="AI114">
         <f t="shared" ca="1" si="17"/>
-        <v>12.91</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="115" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B115" s="15" t="s">
+      <c r="C115" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D115" s="2">
         <v>106.56213138823</v>
@@ -13541,18 +13551,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G115" s="14">
         <v>45471</v>
       </c>
       <c r="H115" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>37.700000000000003</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="I115" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>29.65</v>
+        <v>28.65</v>
       </c>
       <c r="J115" s="2">
         <v>6.32</v>
@@ -13618,7 +13628,7 @@
         <v>90</v>
       </c>
       <c r="AE115" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF115">
         <f t="shared" ca="1" si="16"/>
@@ -13632,18 +13642,18 @@
       </c>
       <c r="AI115">
         <f t="shared" ca="1" si="17"/>
-        <v>12.18</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="116" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B116" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B116" s="15" t="s">
+      <c r="C116" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D116" s="2">
         <v>106.56213138823</v>
@@ -13652,18 +13662,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G116" s="14">
         <v>45472</v>
       </c>
       <c r="H116" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>36.700000000000003</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="I116" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>27.65</v>
+        <v>29.65</v>
       </c>
       <c r="J116" s="2">
         <v>14.21</v>
@@ -13729,7 +13739,7 @@
         <v>90</v>
       </c>
       <c r="AE116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF116">
         <f t="shared" ca="1" si="16"/>
@@ -13743,18 +13753,18 @@
       </c>
       <c r="AI116">
         <f t="shared" ca="1" si="17"/>
-        <v>13.53</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="117" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="C117" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D117" s="2">
         <v>106.56213138823</v>
@@ -13763,18 +13773,18 @@
         <v>20.564662101784901</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G117" s="14">
         <v>45473</v>
       </c>
       <c r="H117" s="16">
         <f t="shared" ca="1" si="20"/>
-        <v>37.700000000000003</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I117" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>29.65</v>
+        <v>27.65</v>
       </c>
       <c r="J117" s="2">
         <v>7.37</v>
@@ -13840,7 +13850,7 @@
         <v>90</v>
       </c>
       <c r="AE117" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF117">
         <f t="shared" ca="1" si="16"/>
@@ -13854,7 +13864,7 @@
       </c>
       <c r="AI117">
         <f t="shared" ca="1" si="17"/>
-        <v>13.67</v>
+        <v>12.58</v>
       </c>
     </row>
   </sheetData>
@@ -59207,7 +59217,7 @@
   <customSheetViews>
     <customSheetView guid="{672CCBC4-2407-49A9-8C4F-1CAA4DF8D7D8}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:D24" xr:uid="{B8986228-A929-4F27-9B30-F9ED13CBC198}"/>
+      <autoFilter ref="A1:D24" xr:uid="{F21E1B2F-D1E9-4955-B628-38E24B432F85}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="4">
